--- a/data/nzd0006/nzd0006.xlsx
+++ b/data/nzd0006/nzd0006.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P198"/>
+  <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10424,6 +10424,168 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>358.6511111111111</v>
+      </c>
+      <c r="C199" t="n">
+        <v>347.8111111111111</v>
+      </c>
+      <c r="D199" t="n">
+        <v>326.3411111111111</v>
+      </c>
+      <c r="E199" t="n">
+        <v>327.7058823529412</v>
+      </c>
+      <c r="F199" t="n">
+        <v>324.98</v>
+      </c>
+      <c r="G199" t="n">
+        <v>319.79</v>
+      </c>
+      <c r="H199" t="n">
+        <v>325.47</v>
+      </c>
+      <c r="I199" t="n">
+        <v>320.51</v>
+      </c>
+      <c r="J199" t="n">
+        <v>327.7211111111111</v>
+      </c>
+      <c r="K199" t="n">
+        <v>335.6511111111111</v>
+      </c>
+      <c r="L199" t="n">
+        <v>345.7307692307692</v>
+      </c>
+      <c r="M199" t="n">
+        <v>347.29</v>
+      </c>
+      <c r="N199" t="n">
+        <v>354.3811111111111</v>
+      </c>
+      <c r="O199" t="n">
+        <v>353.8066666666667</v>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>364.6211111111111</v>
+      </c>
+      <c r="C200" t="n">
+        <v>340.9711111111111</v>
+      </c>
+      <c r="D200" t="n">
+        <v>340.3011111111111</v>
+      </c>
+      <c r="E200" t="n">
+        <v>330.6817647058824</v>
+      </c>
+      <c r="F200" t="n">
+        <v>339.66</v>
+      </c>
+      <c r="G200" t="n">
+        <v>322.16</v>
+      </c>
+      <c r="H200" t="n">
+        <v>325.3</v>
+      </c>
+      <c r="I200" t="n">
+        <v>325.8200000000001</v>
+      </c>
+      <c r="J200" t="n">
+        <v>332.5411111111111</v>
+      </c>
+      <c r="K200" t="n">
+        <v>341.6511111111111</v>
+      </c>
+      <c r="L200" t="n">
+        <v>346.0284615384616</v>
+      </c>
+      <c r="M200" t="n">
+        <v>355.08</v>
+      </c>
+      <c r="N200" t="n">
+        <v>356.5311111111111</v>
+      </c>
+      <c r="O200" t="n">
+        <v>365.6966666666667</v>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>362.0688888888889</v>
+      </c>
+      <c r="C201" t="n">
+        <v>348.8888888888889</v>
+      </c>
+      <c r="D201" t="n">
+        <v>327.3588888888889</v>
+      </c>
+      <c r="E201" t="n">
+        <v>329.7552941176471</v>
+      </c>
+      <c r="F201" t="n">
+        <v>335.46</v>
+      </c>
+      <c r="G201" t="n">
+        <v>332.59</v>
+      </c>
+      <c r="H201" t="n">
+        <v>326.6</v>
+      </c>
+      <c r="I201" t="n">
+        <v>334.95</v>
+      </c>
+      <c r="J201" t="n">
+        <v>338.3288888888889</v>
+      </c>
+      <c r="K201" t="n">
+        <v>340.9388888888889</v>
+      </c>
+      <c r="L201" t="n">
+        <v>345.8561538461539</v>
+      </c>
+      <c r="M201" t="n">
+        <v>367.35</v>
+      </c>
+      <c r="N201" t="n">
+        <v>365.1388888888889</v>
+      </c>
+      <c r="O201" t="n">
+        <v>362.3633333333333</v>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10435,7 +10597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12453,6 +12615,36 @@
       </c>
       <c r="B201" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -12621,28 +12813,28 @@
         <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.146040286437106</v>
+        <v>-0.1335263530916737</v>
       </c>
       <c r="J2" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007052574742780315</v>
+        <v>0.006122702899587495</v>
       </c>
       <c r="M2" t="n">
-        <v>10.52894191895006</v>
+        <v>10.40549087092858</v>
       </c>
       <c r="N2" t="n">
-        <v>170.4899137728422</v>
+        <v>167.8154904247143</v>
       </c>
       <c r="O2" t="n">
-        <v>13.05717862988947</v>
+        <v>12.95436183008311</v>
       </c>
       <c r="P2" t="n">
-        <v>361.7532451940255</v>
+        <v>361.6426253678565</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12692,28 +12884,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1024248949280995</v>
+        <v>-0.1133953829479806</v>
       </c>
       <c r="J3" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002335907229195966</v>
+        <v>0.002989613367265109</v>
       </c>
       <c r="M3" t="n">
-        <v>12.81633500561182</v>
+        <v>12.62982669047409</v>
       </c>
       <c r="N3" t="n">
-        <v>247.2626846040469</v>
+        <v>242.8618020135041</v>
       </c>
       <c r="O3" t="n">
-        <v>15.72458853528597</v>
+        <v>15.58402393521981</v>
       </c>
       <c r="P3" t="n">
-        <v>351.3105864037562</v>
+        <v>351.4074564439234</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12769,28 +12961,28 @@
         <v>0.0503</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1863449512505445</v>
+        <v>-0.2010552683633924</v>
       </c>
       <c r="J4" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00681948171303981</v>
+        <v>0.008217425786904653</v>
       </c>
       <c r="M4" t="n">
-        <v>13.52981480119239</v>
+        <v>13.42585287030477</v>
       </c>
       <c r="N4" t="n">
-        <v>285.4588669031992</v>
+        <v>281.4693381399396</v>
       </c>
       <c r="O4" t="n">
-        <v>16.89552801492748</v>
+        <v>16.77704795665613</v>
       </c>
       <c r="P4" t="n">
-        <v>340.3440958267392</v>
+        <v>340.4734610269836</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12840,28 +13032,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.2495718219550979</v>
+        <v>-0.2606660151939929</v>
       </c>
       <c r="J5" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01152495160262068</v>
+        <v>0.01304945750686115</v>
       </c>
       <c r="M5" t="n">
-        <v>14.06398622408011</v>
+        <v>13.87105200191884</v>
       </c>
       <c r="N5" t="n">
-        <v>303.1499223734357</v>
+        <v>298.0059033121842</v>
       </c>
       <c r="O5" t="n">
-        <v>17.41120106062289</v>
+        <v>17.2628474856318</v>
       </c>
       <c r="P5" t="n">
-        <v>338.9231327912327</v>
+        <v>339.0204248524494</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -12917,28 +13109,28 @@
         <v>0.0418</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4655216359195749</v>
+        <v>-0.4469724077487116</v>
       </c>
       <c r="J6" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03473615139616282</v>
+        <v>0.03318875602198623</v>
       </c>
       <c r="M6" t="n">
-        <v>14.57733497007704</v>
+        <v>14.44902581771921</v>
       </c>
       <c r="N6" t="n">
-        <v>339.3311670055533</v>
+        <v>334.6826889868191</v>
       </c>
       <c r="O6" t="n">
-        <v>18.42094370561816</v>
+        <v>18.29433488779571</v>
       </c>
       <c r="P6" t="n">
-        <v>339.4621706425527</v>
+        <v>339.2966608891493</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -12988,28 +13180,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.2534349710304301</v>
+        <v>-0.2635115809163613</v>
       </c>
       <c r="J7" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01055565715272355</v>
+        <v>0.01181990035439551</v>
       </c>
       <c r="M7" t="n">
-        <v>14.29368730217188</v>
+        <v>14.15675099964941</v>
       </c>
       <c r="N7" t="n">
-        <v>337.6867159529145</v>
+        <v>332.5525326846441</v>
       </c>
       <c r="O7" t="n">
-        <v>18.3762541327909</v>
+        <v>18.2360229404507</v>
       </c>
       <c r="P7" t="n">
-        <v>334.268104621485</v>
+        <v>334.3570191819517</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -13065,28 +13257,28 @@
         <v>0.048</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2364012055176006</v>
+        <v>-0.2349744136352538</v>
       </c>
       <c r="J8" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0079459514130098</v>
+        <v>0.008161715096173694</v>
       </c>
       <c r="M8" t="n">
-        <v>15.34344971875654</v>
+        <v>15.08340396407917</v>
       </c>
       <c r="N8" t="n">
-        <v>389.6949789978068</v>
+        <v>382.9069228916047</v>
       </c>
       <c r="O8" t="n">
-        <v>19.74069347813817</v>
+        <v>19.56800763725333</v>
       </c>
       <c r="P8" t="n">
-        <v>331.316994659632</v>
+        <v>331.3042443149338</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -13142,28 +13334,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1940755879088874</v>
+        <v>-0.1888506341459316</v>
       </c>
       <c r="J9" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006103246629863501</v>
+        <v>0.005998308720753687</v>
       </c>
       <c r="M9" t="n">
-        <v>14.57144224688164</v>
+        <v>14.40184602987147</v>
       </c>
       <c r="N9" t="n">
-        <v>345.2852658387075</v>
+        <v>339.9546418709946</v>
       </c>
       <c r="O9" t="n">
-        <v>18.58185313252442</v>
+        <v>18.43785892860108</v>
       </c>
       <c r="P9" t="n">
-        <v>330.4601840982783</v>
+        <v>330.4134332048872</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -13219,28 +13411,28 @@
         <v>0.0502</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3171964068431639</v>
+        <v>-0.3065799049861557</v>
       </c>
       <c r="J10" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01622859676504784</v>
+        <v>0.01575345908930648</v>
       </c>
       <c r="M10" t="n">
-        <v>14.64600143729808</v>
+        <v>14.47564477556248</v>
       </c>
       <c r="N10" t="n">
-        <v>342.3587268915047</v>
+        <v>337.0979055692943</v>
       </c>
       <c r="O10" t="n">
-        <v>18.50293833128957</v>
+        <v>18.36022618513438</v>
       </c>
       <c r="P10" t="n">
-        <v>337.674982076149</v>
+        <v>337.5820207941101</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -13296,28 +13488,28 @@
         <v>0.0482</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1654257328055362</v>
+        <v>-0.1615718789714145</v>
       </c>
       <c r="J11" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004568609251821232</v>
+        <v>0.004526450498437362</v>
       </c>
       <c r="M11" t="n">
-        <v>14.77031350549911</v>
+        <v>14.57656796205313</v>
       </c>
       <c r="N11" t="n">
-        <v>337.4192828150611</v>
+        <v>332.0861283300244</v>
       </c>
       <c r="O11" t="n">
-        <v>18.36897609599025</v>
+        <v>18.22323045812746</v>
       </c>
       <c r="P11" t="n">
-        <v>342.3888300072795</v>
+        <v>342.3553572366741</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -13373,28 +13565,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3769430660836675</v>
+        <v>-0.3623063808789899</v>
       </c>
       <c r="J12" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02255314893969806</v>
+        <v>0.02163098782180117</v>
       </c>
       <c r="M12" t="n">
-        <v>14.97469471202499</v>
+        <v>14.8006239793593</v>
       </c>
       <c r="N12" t="n">
-        <v>340.6115421856159</v>
+        <v>335.3753408337928</v>
       </c>
       <c r="O12" t="n">
-        <v>18.45566423040948</v>
+        <v>18.31325587747282</v>
       </c>
       <c r="P12" t="n">
-        <v>350.8203283438153</v>
+        <v>350.6899945905506</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -13450,28 +13642,28 @@
         <v>0.0473</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3178155555182975</v>
+        <v>-0.2894365974444703</v>
       </c>
       <c r="J13" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01545677615225105</v>
+        <v>0.01326090877026187</v>
       </c>
       <c r="M13" t="n">
-        <v>15.10764381096262</v>
+        <v>15.01255016707091</v>
       </c>
       <c r="N13" t="n">
-        <v>358.427980208805</v>
+        <v>354.7883980850102</v>
       </c>
       <c r="O13" t="n">
-        <v>18.93219427876243</v>
+        <v>18.83582751261569</v>
       </c>
       <c r="P13" t="n">
-        <v>355.9459540815271</v>
+        <v>355.694178783228</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -13527,28 +13719,28 @@
         <v>0.0538</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3613606263022816</v>
+        <v>-0.3311746750516341</v>
       </c>
       <c r="J14" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01836995227631832</v>
+        <v>0.01598434498258183</v>
       </c>
       <c r="M14" t="n">
-        <v>15.91277267548696</v>
+        <v>15.79203034780694</v>
       </c>
       <c r="N14" t="n">
-        <v>393.1148086345599</v>
+        <v>388.2934937234297</v>
       </c>
       <c r="O14" t="n">
-        <v>19.82712305491041</v>
+        <v>19.70516413845441</v>
       </c>
       <c r="P14" t="n">
-        <v>358.4645133718012</v>
+        <v>358.1974517496012</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -13604,28 +13796,28 @@
         <v>0.0346</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3573252635076838</v>
+        <v>-0.3254787052205286</v>
       </c>
       <c r="J15" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0142845136300801</v>
+        <v>0.01238557423552999</v>
       </c>
       <c r="M15" t="n">
-        <v>17.71855995820378</v>
+        <v>17.53976051235666</v>
       </c>
       <c r="N15" t="n">
-        <v>481.2255358815349</v>
+        <v>474.1472008008739</v>
       </c>
       <c r="O15" t="n">
-        <v>21.93685337238536</v>
+        <v>21.77492137301244</v>
       </c>
       <c r="P15" t="n">
-        <v>361.1758526687858</v>
+        <v>360.8987954900456</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -13662,7 +13854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P198"/>
+  <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28442,6 +28634,252 @@
         </is>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>-34.454915326171296,173.0035528793495</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>-34.45565372726948,173.00341516835124</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>-34.45639002052214,173.00316175219496</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>-34.45713082063034,173.00315688100025</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>-34.45787080558071,173.00310748423823</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>-34.45861029685586,173.0030312653596</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>-34.459345854982644,173.00307359597997</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>-34.460069834070694,173.00297008396132</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>-34.460806830055084,173.00296906513213</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>-34.4615509145249,173.00297518827824</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>-34.46229957445763,173.0030043277374</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>-34.46304492655825,173.0029709397557</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>-34.46378943689245,173.0030276280214</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>-34.46452977187886,173.0030009787837</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>-34.45491650602289,173.0036178591524</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>-34.4556523753578,173.00334071847885</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>-34.45639277985219,173.00331370092835</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>-34.45713140885771,173.0031892725143</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>-34.4578737072727,173.00326727268867</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>-34.458610765345725,173.00305706249512</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>-34.45934579515382,173.00307174650152</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>-34.460073304174706,173.00302774551108</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>-34.46081068876595,173.00302133699012</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>-34.46155571787725,173.0030402575611</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>-34.46229976820044,173.00300756054864</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>-34.46304767343409,173.00305569287414</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>-34.463789876361645,173.00305103154184</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>-34.46453220220985,173.00313040683938</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>-34.45491600163123,173.00359007977247</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>-34.45565394028587,173.00342689940672</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>-34.456390221702215,173.00317283027803</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>-34.45713122572795,173.00317918818243</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>-34.45787287710967,173.00322155664585</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>-34.45861282703179,173.0031705916646</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>-34.459346252667665,173.003085889572</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>-34.460079270598804,173.00312688863883</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>-34.46081532221382,173.0030841041952</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>-34.46155514770335,173.00303253359584</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>-34.46229965605991,173.00300568936072</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>-34.46305199990885,173.0031891872067</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>-34.463791635783345,173.00314473028988</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>-34.46453152088613,173.00309412198982</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0006/nzd0006.xlsx
+++ b/data/nzd0006/nzd0006.xlsx
@@ -12658,7 +12658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12749,35 +12749,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12836,27 +12841,28 @@
       <c r="P2" t="n">
         <v>361.6426253678565</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.99964918445917 -34.45484438256145, 173.0097722131052 -34.455028095200795)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.9996491844592</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.45484438256145</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.0097722131052</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.4550280952008</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.0047106987822</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.45493623888112</v>
       </c>
     </row>
@@ -12907,27 +12913,28 @@
       <c r="P3" t="n">
         <v>351.4074564439234</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.99962942682507 -34.45558492566985, 173.00975251309464 -34.45576863876583)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.9996294268251</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.45558492566985</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.0097525130946</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.45576863876583</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.0046909699599</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.45567678221784</v>
       </c>
     </row>
@@ -12984,27 +12991,28 @@
       <c r="P4" t="n">
         <v>340.4734610269836</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.99960966919045 -34.456325462210906, 173.00973281308515 -34.45650917576356)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.9996096691904</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.45632546221091</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.0097328130852</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.45650917576356</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.0046712411378</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.45641731898723</v>
       </c>
     </row>
@@ -13055,27 +13063,28 @@
       <c r="P5" t="n">
         <v>339.0204248524494</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.99958991155526 -34.457065992184454, 173.00971311307677 -34.45724970619412)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.9995899115553</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.45706599218445</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.0097131130768</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.45724970619412</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.004651512316</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.45715784918929</v>
       </c>
     </row>
@@ -13132,27 +13141,28 @@
       <c r="P6" t="n">
         <v>339.2966608891493</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.99957015391954 -34.45780651559052, 173.00969341306936 -34.45799023005724)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.9995701539195</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.45780651559052</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.0096934130694</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.45799023005724</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.0046317834945</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.45789837282388</v>
       </c>
     </row>
@@ -13203,27 +13213,28 @@
       <c r="P7" t="n">
         <v>334.3570191819517</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.99955039628327 -34.45854703242921, 173.00967371306305 -34.45873074735268)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.9995503962833</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.45854703242921</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.0096737130631</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.45873074735268</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.0046120546731</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.45863888989095</v>
       </c>
     </row>
@@ -13280,27 +13291,28 @@
       <c r="P8" t="n">
         <v>331.3042443149338</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.99953271994517 -34.45923125968348, 173.00965080108094 -34.45955844363569)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.9995327199452</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.45923125968348</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.0096508010809</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.45955844363569</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.0045917605131</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.45939485165958</v>
       </c>
     </row>
@@ -13357,27 +13369,28 @@
       <c r="P9" t="n">
         <v>330.4134332048872</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.99948965902703 -34.45986032927007, 173.00958883784432 -34.46046797484488)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.999489659027</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.45986032927007</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.0095888378443</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.46046797484488</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.0045392484357</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.46016415205747</v>
       </c>
     </row>
@@ -13434,27 +13447,28 @@
       <c r="P10" t="n">
         <v>337.5820207941101</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.99941501181198 -34.46054441642045, 173.00950085290452 -34.46128883104719)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.999415011812</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.46054441642045</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.0095008529045</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.46128883104719</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.0044579323583</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.46091662373382</v>
       </c>
     </row>
@@ -13511,27 +13525,28 @@
       <c r="P11" t="n">
         <v>342.3553572366741</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.99933510396735 -34.46128215092999, 173.00942100183886 -34.462026567417155)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.9993351039674</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.46128215092999</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.0094210018389</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.46202656741715</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.0043780529031</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.46165435917357</v>
       </c>
     </row>
@@ -13588,27 +13603,28 @@
       <c r="P12" t="n">
         <v>350.6899945905506</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.99924984940142 -34.46207450975349, 173.00934941781597 -34.4626796702387)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.9992498494014</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.46207450975349</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.009349417816</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.4626796702387</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.0042996336087</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.4623770899961</v>
       </c>
     </row>
@@ -13665,27 +13681,28 @@
       <c r="P13" t="n">
         <v>355.694178783228</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.9991925229961 -34.46292240696823, 173.00931086035254 -34.46325024272086)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.9991925229961</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.46292240696823</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.0093108603525</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.46325024272086</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.0042516916743</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.46308632484455</v>
       </c>
     </row>
@@ -13742,27 +13759,28 @@
       <c r="P14" t="n">
         <v>358.1974517496012</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.99917006599196 -34.46371693864348, 173.00929361587524 -34.46390693888856)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.999170065992</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.46371693864348</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.0092936158752</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.46390693888856</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.0042318409336</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.46381193876602</v>
       </c>
     </row>
@@ -13819,27 +13837,28 @@
       <c r="P15" t="n">
         <v>360.8987954900456</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.99914963579354 -34.46445739064082, 173.00927324331568 -34.464647391359115)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.9991496357935</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.46445739064082</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.0092732433157</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.46464739135912</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.0042114395546</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.46455239099997</v>
       </c>
     </row>

--- a/data/nzd0006/nzd0006.xlsx
+++ b/data/nzd0006/nzd0006.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P201"/>
+  <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10586,6 +10586,100 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>355.4977777777778</v>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="n">
+        <v>318.0877777777778</v>
+      </c>
+      <c r="E202" t="n">
+        <v>320.1764705882353</v>
+      </c>
+      <c r="F202" t="n">
+        <v>322.2</v>
+      </c>
+      <c r="G202" t="n">
+        <v>311.64</v>
+      </c>
+      <c r="H202" t="n">
+        <v>306.27</v>
+      </c>
+      <c r="I202" t="n">
+        <v>317.54</v>
+      </c>
+      <c r="J202" t="n">
+        <v>325.9277777777777</v>
+      </c>
+      <c r="K202" t="n">
+        <v>329.5377777777778</v>
+      </c>
+      <c r="L202" t="n">
+        <v>342.1530769230769</v>
+      </c>
+      <c r="M202" t="n">
+        <v>349.37</v>
+      </c>
+      <c r="N202" t="n">
+        <v>354.1477777777778</v>
+      </c>
+      <c r="O202" t="n">
+        <v>346.9966666666667</v>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="n">
+        <v>344.42</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>339.3200000000001</v>
+      </c>
+      <c r="J203" t="n">
+        <v>348.8944444444444</v>
+      </c>
+      <c r="K203" t="n">
+        <v>345.1944444444445</v>
+      </c>
+      <c r="L203" t="n">
+        <v>357.3792307692308</v>
+      </c>
+      <c r="M203" t="n">
+        <v>374.86</v>
+      </c>
+      <c r="N203" t="n">
+        <v>376.7144444444445</v>
+      </c>
+      <c r="O203" t="n">
+        <v>385.9766666666667</v>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10597,7 +10691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12645,6 +12739,26 @@
       </c>
       <c r="B204" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -12818,28 +12932,28 @@
         <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1335263530916737</v>
+        <v>-0.1366186264310229</v>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K2" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006122702899587495</v>
+        <v>0.0064865336947455</v>
       </c>
       <c r="M2" t="n">
-        <v>10.40549087092858</v>
+        <v>10.36126964403721</v>
       </c>
       <c r="N2" t="n">
-        <v>167.8154904247143</v>
+        <v>166.8782531027001</v>
       </c>
       <c r="O2" t="n">
-        <v>12.95436183008311</v>
+        <v>12.91813659560465</v>
       </c>
       <c r="P2" t="n">
-        <v>361.6426253678565</v>
+        <v>361.6700788423231</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12893,7 +13007,7 @@
         <v>-0.1133953829479806</v>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K3" t="n">
         <v>155</v>
@@ -12968,28 +13082,28 @@
         <v>0.0503</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2010552683633924</v>
+        <v>-0.2205178015118998</v>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K4" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008217425786904653</v>
+        <v>0.009934569515841374</v>
       </c>
       <c r="M4" t="n">
-        <v>13.42585287030477</v>
+        <v>13.45081069177599</v>
       </c>
       <c r="N4" t="n">
-        <v>281.4693381399396</v>
+        <v>281.5424736777104</v>
       </c>
       <c r="O4" t="n">
-        <v>16.77704795665613</v>
+        <v>16.77922744579471</v>
       </c>
       <c r="P4" t="n">
-        <v>340.4734610269836</v>
+        <v>340.6456538169339</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13040,28 +13154,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.2606660151939929</v>
+        <v>-0.2744460279358656</v>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K5" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01304945750686115</v>
+        <v>0.0145862102616594</v>
       </c>
       <c r="M5" t="n">
-        <v>13.87105200191884</v>
+        <v>13.85844486676553</v>
       </c>
       <c r="N5" t="n">
-        <v>298.0059033121842</v>
+        <v>297.1261007773759</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2628474856318</v>
+        <v>17.23734610598093</v>
       </c>
       <c r="P5" t="n">
-        <v>339.0204248524494</v>
+        <v>339.1420839934884</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13118,28 +13232,28 @@
         <v>0.0418</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4469724077487116</v>
+        <v>-0.4532922454611441</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K6" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03318875602198623</v>
+        <v>0.03448703583050994</v>
       </c>
       <c r="M6" t="n">
-        <v>14.44902581771921</v>
+        <v>14.40162328283484</v>
       </c>
       <c r="N6" t="n">
-        <v>334.6826889868191</v>
+        <v>332.9694016459848</v>
       </c>
       <c r="O6" t="n">
-        <v>18.29433488779571</v>
+        <v>18.24744918189895</v>
       </c>
       <c r="P6" t="n">
-        <v>339.2966608891493</v>
+        <v>339.3532113854713</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13190,28 +13304,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.2635115809163613</v>
+        <v>-0.2627583492907485</v>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K7" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01181990035439551</v>
+        <v>0.01193385486375054</v>
       </c>
       <c r="M7" t="n">
-        <v>14.15675099964941</v>
+        <v>14.18196322378328</v>
       </c>
       <c r="N7" t="n">
-        <v>332.5525326846441</v>
+        <v>331.8284339360882</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2360229404507</v>
+        <v>18.21615859439328</v>
       </c>
       <c r="P7" t="n">
-        <v>334.3570191819517</v>
+        <v>334.3501036840515</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13268,28 +13382,28 @@
         <v>0.048</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2349744136352538</v>
+        <v>-0.2564035932500033</v>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K8" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008161715096173694</v>
+        <v>0.009772994511556554</v>
       </c>
       <c r="M8" t="n">
-        <v>15.08340396407917</v>
+        <v>15.11572708809561</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9069228916047</v>
+        <v>382.7637877565741</v>
       </c>
       <c r="O8" t="n">
-        <v>19.56800763725333</v>
+        <v>19.56434991908942</v>
       </c>
       <c r="P8" t="n">
-        <v>331.3042443149338</v>
+        <v>331.4960114712851</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -13346,28 +13460,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1888506341459316</v>
+        <v>-0.1827252509603253</v>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K9" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005998308720753687</v>
+        <v>0.005734791349618185</v>
       </c>
       <c r="M9" t="n">
-        <v>14.40184602987147</v>
+        <v>14.35945701760034</v>
       </c>
       <c r="N9" t="n">
-        <v>339.9546418709946</v>
+        <v>337.5109208534971</v>
       </c>
       <c r="O9" t="n">
-        <v>18.43785892860108</v>
+        <v>18.37147029645415</v>
       </c>
       <c r="P9" t="n">
-        <v>330.4134332048872</v>
+        <v>330.3589362366856</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -13424,28 +13538,28 @@
         <v>0.0502</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3065799049861557</v>
+        <v>-0.290186754350482</v>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K10" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01575345908930648</v>
+        <v>0.01440433127659568</v>
       </c>
       <c r="M10" t="n">
-        <v>14.47564477556248</v>
+        <v>14.4420871914128</v>
       </c>
       <c r="N10" t="n">
-        <v>337.0979055692943</v>
+        <v>335.4423675634973</v>
       </c>
       <c r="O10" t="n">
-        <v>18.36022618513438</v>
+        <v>18.31508579186833</v>
       </c>
       <c r="P10" t="n">
-        <v>337.5820207941101</v>
+        <v>337.4381984704974</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -13502,28 +13616,28 @@
         <v>0.0482</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1615718789714145</v>
+        <v>-0.1634540351570195</v>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K11" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004526450498437362</v>
+        <v>0.004737112012942024</v>
       </c>
       <c r="M11" t="n">
-        <v>14.57656796205313</v>
+        <v>14.50512152133555</v>
       </c>
       <c r="N11" t="n">
-        <v>332.0861283300244</v>
+        <v>329.1986318299787</v>
       </c>
       <c r="O11" t="n">
-        <v>18.22323045812746</v>
+        <v>18.14383178465835</v>
       </c>
       <c r="P11" t="n">
-        <v>342.3553572366741</v>
+        <v>342.3716162188959</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -13580,28 +13694,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3623063808789899</v>
+        <v>-0.3449869516842293</v>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K12" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02163098782180117</v>
+        <v>0.0200427439211105</v>
       </c>
       <c r="M12" t="n">
-        <v>14.8006239793593</v>
+        <v>14.72296706789317</v>
       </c>
       <c r="N12" t="n">
-        <v>335.3753408337928</v>
+        <v>333.0962906356006</v>
       </c>
       <c r="O12" t="n">
-        <v>18.31325587747282</v>
+        <v>18.2509257473587</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6899945905506</v>
+        <v>350.5347711066475</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -13658,28 +13772,28 @@
         <v>0.0473</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2894365974444703</v>
+        <v>-0.2601790097557244</v>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K13" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01326090877026187</v>
+        <v>0.01089047718811331</v>
       </c>
       <c r="M13" t="n">
-        <v>15.01255016707091</v>
+        <v>14.99820750872875</v>
       </c>
       <c r="N13" t="n">
-        <v>354.7883980850102</v>
+        <v>354.6764211681656</v>
       </c>
       <c r="O13" t="n">
-        <v>18.83582751261569</v>
+        <v>18.83285483319419</v>
       </c>
       <c r="P13" t="n">
-        <v>355.694178783228</v>
+        <v>355.4337944342412</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -13736,28 +13850,28 @@
         <v>0.0538</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3311746750516341</v>
+        <v>-0.2983239639286291</v>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K14" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01598434498258183</v>
+        <v>0.01318687567662835</v>
       </c>
       <c r="M14" t="n">
-        <v>15.79203034780694</v>
+        <v>15.77813173385905</v>
       </c>
       <c r="N14" t="n">
-        <v>388.2934937234297</v>
+        <v>388.008762140446</v>
       </c>
       <c r="O14" t="n">
-        <v>19.70516413845441</v>
+        <v>19.69793801747904</v>
       </c>
       <c r="P14" t="n">
-        <v>358.1974517496012</v>
+        <v>357.9053982908479</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -13814,28 +13928,28 @@
         <v>0.0346</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3254787052205286</v>
+        <v>-0.2917958835918909</v>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K15" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01238557423552999</v>
+        <v>0.0101257471974906</v>
       </c>
       <c r="M15" t="n">
-        <v>17.53976051235666</v>
+        <v>17.55546323618761</v>
       </c>
       <c r="N15" t="n">
-        <v>474.1472008008739</v>
+        <v>475.211921250832</v>
       </c>
       <c r="O15" t="n">
-        <v>21.77492137301244</v>
+        <v>21.79935598247875</v>
       </c>
       <c r="P15" t="n">
-        <v>360.8987954900456</v>
+        <v>360.6042929837694</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -13873,7 +13987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P201"/>
+  <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28899,6 +29013,142 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>-34.454914702963826,173.0035185572433</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>-34.45638838908153,173.00307191813474</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>-34.45712933229191,173.0030749257977</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>-34.457870256054214,173.00307722457381</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>-34.45860868576267,173.00294255369317</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>-34.45933909766786,173.00286471372593</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>-34.460067893153195,173.0029378325881</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>-34.4608053943741,173.00294961682107</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>-34.461546020406935,173.0029088899166</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>-34.46229724603279,173.0029654755289</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>-34.463045660004525,173.00299356959937</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>-34.463789389197856,173.0030250881045</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>-34.46452837984454,173.00292684884093</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>-34.45861516532664,173.00329935965556</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>-34.46008212635056,173.00317434269294</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>-34.460823780463514,173.00319868539052</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>-34.46155855450739,173.00307868459106</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>-34.462307155394925,173.00313082506324</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>-34.463054647907455,173.0032708940136</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>-34.463794001702794,173.00327073436947</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>-34.46453634715123,173.0033511638768</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0006/nzd0006.xlsx
+++ b/data/nzd0006/nzd0006.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P203"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10680,6 +10680,60 @@
         </is>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>357.3711111111111</v>
+      </c>
+      <c r="C204" t="n">
+        <v>353.2611111111111</v>
+      </c>
+      <c r="D204" t="n">
+        <v>324.5611111111111</v>
+      </c>
+      <c r="E204" t="n">
+        <v>304.9635294117647</v>
+      </c>
+      <c r="F204" t="n">
+        <v>307.22</v>
+      </c>
+      <c r="G204" t="n">
+        <v>332.72</v>
+      </c>
+      <c r="H204" t="n">
+        <v>316.47</v>
+      </c>
+      <c r="I204" t="n">
+        <v>313.68</v>
+      </c>
+      <c r="J204" t="n">
+        <v>325.7911111111111</v>
+      </c>
+      <c r="K204" t="n">
+        <v>334.1811111111111</v>
+      </c>
+      <c r="L204" t="n">
+        <v>346.8253846153846</v>
+      </c>
+      <c r="M204" t="n">
+        <v>336.09</v>
+      </c>
+      <c r="N204" t="n">
+        <v>349.0411111111111</v>
+      </c>
+      <c r="O204" t="n">
+        <v>350.1366666666667</v>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10691,7 +10745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B206"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12759,6 +12813,16 @@
       </c>
       <c r="B206" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -12932,28 +12996,28 @@
         <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1366186264310229</v>
+        <v>-0.1375343071469712</v>
       </c>
       <c r="J2" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K2" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0064865336947455</v>
+        <v>0.006656519286158957</v>
       </c>
       <c r="M2" t="n">
-        <v>10.36126964403721</v>
+        <v>10.30583700929505</v>
       </c>
       <c r="N2" t="n">
-        <v>166.8782531027001</v>
+        <v>165.9118858223186</v>
       </c>
       <c r="O2" t="n">
-        <v>12.91813659560465</v>
+        <v>12.88067877956432</v>
       </c>
       <c r="P2" t="n">
-        <v>361.6700788423231</v>
+        <v>361.6782918825971</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13004,28 +13068,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1133953829479806</v>
+        <v>-0.1072647097423728</v>
       </c>
       <c r="J3" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K3" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002989613367265109</v>
+        <v>0.002715006431114997</v>
       </c>
       <c r="M3" t="n">
-        <v>12.62982669047409</v>
+        <v>12.57607340312262</v>
       </c>
       <c r="N3" t="n">
-        <v>242.8618020135041</v>
+        <v>241.4459293645492</v>
       </c>
       <c r="O3" t="n">
-        <v>15.58402393521981</v>
+        <v>15.53853047635294</v>
       </c>
       <c r="P3" t="n">
-        <v>351.4074564439234</v>
+        <v>351.3524791769441</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13082,28 +13146,28 @@
         <v>0.0503</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2205178015118998</v>
+        <v>-0.2322777311977675</v>
       </c>
       <c r="J4" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K4" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009934569515841374</v>
+        <v>0.01112759135038632</v>
       </c>
       <c r="M4" t="n">
-        <v>13.45081069177599</v>
+        <v>13.4339035185625</v>
       </c>
       <c r="N4" t="n">
-        <v>281.5424736777104</v>
+        <v>280.5372092844119</v>
       </c>
       <c r="O4" t="n">
-        <v>16.77922744579471</v>
+        <v>16.74924503625199</v>
       </c>
       <c r="P4" t="n">
-        <v>340.6456538169339</v>
+        <v>340.750746944286</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13154,28 +13218,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.2744460279358656</v>
+        <v>-0.3049681525644067</v>
       </c>
       <c r="J5" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K5" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0145862102616594</v>
+        <v>0.01792689974339878</v>
       </c>
       <c r="M5" t="n">
-        <v>13.85844486676553</v>
+        <v>13.93028658433832</v>
       </c>
       <c r="N5" t="n">
-        <v>297.1261007773759</v>
+        <v>299.6182187315679</v>
       </c>
       <c r="O5" t="n">
-        <v>17.23734610598093</v>
+        <v>17.3094834911839</v>
       </c>
       <c r="P5" t="n">
-        <v>339.1420839934884</v>
+        <v>339.4142953111403</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13232,28 +13296,28 @@
         <v>0.0418</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4532922454611441</v>
+        <v>-0.4756919780062425</v>
       </c>
       <c r="J6" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K6" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03448703583050994</v>
+        <v>0.03803945777275208</v>
       </c>
       <c r="M6" t="n">
-        <v>14.40162328283484</v>
+        <v>14.44074594621592</v>
       </c>
       <c r="N6" t="n">
-        <v>332.9694016459848</v>
+        <v>333.4421272711756</v>
       </c>
       <c r="O6" t="n">
-        <v>18.24744918189895</v>
+        <v>18.26039778512986</v>
       </c>
       <c r="P6" t="n">
-        <v>339.3532113854713</v>
+        <v>339.55569049133</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13304,28 +13368,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.2627583492907485</v>
+        <v>-0.2572727329121472</v>
       </c>
       <c r="J7" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K7" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01193385486375054</v>
+        <v>0.01158166478838674</v>
       </c>
       <c r="M7" t="n">
-        <v>14.18196322378328</v>
+        <v>14.12845623833297</v>
       </c>
       <c r="N7" t="n">
-        <v>331.8284339360882</v>
+        <v>330.0956252219209</v>
       </c>
       <c r="O7" t="n">
-        <v>18.21615859439328</v>
+        <v>18.16853393155102</v>
       </c>
       <c r="P7" t="n">
-        <v>334.3501036840515</v>
+        <v>334.3006050581005</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13382,28 +13446,28 @@
         <v>0.048</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2564035932500033</v>
+        <v>-0.2659303654498724</v>
       </c>
       <c r="J8" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K8" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009772994511556554</v>
+        <v>0.01062760427396137</v>
       </c>
       <c r="M8" t="n">
-        <v>15.11572708809561</v>
+        <v>15.08285718356224</v>
       </c>
       <c r="N8" t="n">
-        <v>382.7637877565741</v>
+        <v>380.9716134230117</v>
       </c>
       <c r="O8" t="n">
-        <v>19.56434991908942</v>
+        <v>19.51849413820164</v>
       </c>
       <c r="P8" t="n">
-        <v>331.4960114712851</v>
+        <v>331.5821178776879</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -13460,28 +13524,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1827252509603253</v>
+        <v>-0.1958673612568081</v>
       </c>
       <c r="J9" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K9" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005734791349618185</v>
+        <v>0.006650003344185973</v>
       </c>
       <c r="M9" t="n">
-        <v>14.35945701760034</v>
+        <v>14.34983432175015</v>
       </c>
       <c r="N9" t="n">
-        <v>337.5109208534971</v>
+        <v>336.4004927312208</v>
       </c>
       <c r="O9" t="n">
-        <v>18.37147029645415</v>
+        <v>18.34122386132454</v>
       </c>
       <c r="P9" t="n">
-        <v>330.3589362366856</v>
+        <v>330.4767237677945</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -13538,28 +13602,28 @@
         <v>0.0502</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.290186754350482</v>
+        <v>-0.2947828640423448</v>
       </c>
       <c r="J10" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K10" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01440433127659568</v>
+        <v>0.01503799264564087</v>
       </c>
       <c r="M10" t="n">
-        <v>14.4420871914128</v>
+        <v>14.3858881215551</v>
       </c>
       <c r="N10" t="n">
-        <v>335.4423675634973</v>
+        <v>333.697274426546</v>
       </c>
       <c r="O10" t="n">
-        <v>18.31508579186833</v>
+        <v>18.26738280177393</v>
       </c>
       <c r="P10" t="n">
-        <v>337.4381984704974</v>
+        <v>337.4788654635667</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -13616,28 +13680,28 @@
         <v>0.0482</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1634540351570195</v>
+        <v>-0.1676636806517823</v>
       </c>
       <c r="J11" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K11" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004737112012942024</v>
+        <v>0.005042835830138204</v>
       </c>
       <c r="M11" t="n">
-        <v>14.50512152133555</v>
+        <v>14.45059872721252</v>
       </c>
       <c r="N11" t="n">
-        <v>329.1986318299787</v>
+        <v>327.5324752263709</v>
       </c>
       <c r="O11" t="n">
-        <v>18.14383178465835</v>
+        <v>18.09785830495893</v>
       </c>
       <c r="P11" t="n">
-        <v>342.3716162188959</v>
+        <v>342.4085036883238</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -13694,28 +13758,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3449869516842293</v>
+        <v>-0.3396607198352738</v>
       </c>
       <c r="J12" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K12" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0200427439211105</v>
+        <v>0.01966326281477249</v>
       </c>
       <c r="M12" t="n">
-        <v>14.72296706789317</v>
+        <v>14.66897514646243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.0962906356006</v>
+        <v>331.4501650002345</v>
       </c>
       <c r="O12" t="n">
-        <v>18.2509257473587</v>
+        <v>18.2057728481994</v>
       </c>
       <c r="P12" t="n">
-        <v>350.5347711066475</v>
+        <v>350.4866143354135</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -13772,28 +13836,28 @@
         <v>0.0473</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2601790097557244</v>
+        <v>-0.2737015371997079</v>
       </c>
       <c r="J13" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K13" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01089047718811331</v>
+        <v>0.0121546754037537</v>
       </c>
       <c r="M13" t="n">
-        <v>14.99820750872875</v>
+        <v>14.98482190754066</v>
       </c>
       <c r="N13" t="n">
-        <v>354.6764211681656</v>
+        <v>353.6130414585503</v>
       </c>
       <c r="O13" t="n">
-        <v>18.83285483319419</v>
+        <v>18.80460160329249</v>
       </c>
       <c r="P13" t="n">
-        <v>355.4337944342412</v>
+        <v>355.5552101837802</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -13850,28 +13914,28 @@
         <v>0.0538</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2983239639286291</v>
+        <v>-0.2996606198735574</v>
       </c>
       <c r="J14" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K14" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01318687567662835</v>
+        <v>0.01346179615670451</v>
       </c>
       <c r="M14" t="n">
-        <v>15.77813173385905</v>
+        <v>15.6992158186137</v>
       </c>
       <c r="N14" t="n">
-        <v>388.008762140446</v>
+        <v>385.8971788657064</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69793801747904</v>
+        <v>19.64426580113664</v>
       </c>
       <c r="P14" t="n">
-        <v>357.9053982908479</v>
+        <v>357.9173912220164</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -13928,28 +13992,28 @@
         <v>0.0346</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2917958835918909</v>
+        <v>-0.2954828189295041</v>
       </c>
       <c r="J15" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K15" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0101257471974906</v>
+        <v>0.01052842049470082</v>
       </c>
       <c r="M15" t="n">
-        <v>17.55546323618761</v>
+        <v>17.4688841072945</v>
       </c>
       <c r="N15" t="n">
-        <v>475.211921250832</v>
+        <v>472.4372182871092</v>
       </c>
       <c r="O15" t="n">
-        <v>21.79935598247875</v>
+        <v>21.73562095471646</v>
       </c>
       <c r="P15" t="n">
-        <v>360.6042929837694</v>
+        <v>360.6367913458585</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -13987,7 +14051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P203"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29149,6 +29213,88 @@
         </is>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>-34.45491507320029,173.00353894733172</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>-34.455654804418124,173.0034744887922</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>-34.456389668674205,173.0031423776437</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>-34.457126324982944,173.00290933788096</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>-34.45786729480769,173.0029141707053</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>-34.45861285272808,173.00317200669744</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>-34.45934268753578,173.0029756824192</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>-34.46006537060125,173.00289591666422</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>-34.460805284963335,173.00294813470072</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>-34.46154973769829,173.00295924630507</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>-34.46230028685004,173.00301621479278</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>-34.4630409771601,173.0028490867582</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>-34.463788345354246,173.002969500209</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>-34.46452902169855,173.00296102916667</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0006/nzd0006.xlsx
+++ b/data/nzd0006/nzd0006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0006/nzd0006.xlsx
+++ b/data/nzd0006/nzd0006.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:P205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10734,6 +10734,40 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>355.8992307692308</v>
+      </c>
+      <c r="M205" t="n">
+        <v>364.11</v>
+      </c>
+      <c r="N205" t="n">
+        <v>360.0066666666667</v>
+      </c>
+      <c r="O205" t="n">
+        <v>373.56</v>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10745,7 +10779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12823,6 +12857,16 @@
       </c>
       <c r="B207" t="n">
         <v>-0.22</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -12999,7 +13043,7 @@
         <v>-0.1375343071469712</v>
       </c>
       <c r="J2" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K2" t="n">
         <v>172</v>
@@ -13071,7 +13115,7 @@
         <v>-0.1072647097423728</v>
       </c>
       <c r="J3" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K3" t="n">
         <v>156</v>
@@ -13149,7 +13193,7 @@
         <v>-0.2322777311977675</v>
       </c>
       <c r="J4" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K4" t="n">
         <v>173</v>
@@ -13221,7 +13265,7 @@
         <v>-0.3049681525644067</v>
       </c>
       <c r="J5" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K5" t="n">
         <v>172</v>
@@ -13299,7 +13343,7 @@
         <v>-0.4756919780062425</v>
       </c>
       <c r="J6" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K6" t="n">
         <v>177</v>
@@ -13371,7 +13415,7 @@
         <v>-0.2572727329121472</v>
       </c>
       <c r="J7" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K7" t="n">
         <v>177</v>
@@ -13449,7 +13493,7 @@
         <v>-0.2659303654498724</v>
       </c>
       <c r="J8" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K8" t="n">
         <v>174</v>
@@ -13527,7 +13571,7 @@
         <v>-0.1958673612568081</v>
       </c>
       <c r="J9" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K9" t="n">
         <v>176</v>
@@ -13605,7 +13649,7 @@
         <v>-0.2947828640423448</v>
       </c>
       <c r="J10" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K10" t="n">
         <v>182</v>
@@ -13683,7 +13727,7 @@
         <v>-0.1676636806517823</v>
       </c>
       <c r="J11" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K11" t="n">
         <v>188</v>
@@ -13758,28 +13802,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3396607198352738</v>
+        <v>-0.3250402732460644</v>
       </c>
       <c r="J12" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K12" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01966326281477249</v>
+        <v>0.01819247293019755</v>
       </c>
       <c r="M12" t="n">
-        <v>14.66897514646243</v>
+        <v>14.65807026218388</v>
       </c>
       <c r="N12" t="n">
-        <v>331.4501650002345</v>
+        <v>330.7235759883395</v>
       </c>
       <c r="O12" t="n">
-        <v>18.2057728481994</v>
+        <v>18.18580699304651</v>
       </c>
       <c r="P12" t="n">
-        <v>350.4866143354135</v>
+        <v>350.3539948980243</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -13836,28 +13880,28 @@
         <v>0.0473</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2737015371997079</v>
+        <v>-0.2573775085973213</v>
       </c>
       <c r="J13" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K13" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0121546754037537</v>
+        <v>0.01085338120523893</v>
       </c>
       <c r="M13" t="n">
-        <v>14.98482190754066</v>
+        <v>14.98756226505995</v>
       </c>
       <c r="N13" t="n">
-        <v>353.6130414585503</v>
+        <v>352.9841376967296</v>
       </c>
       <c r="O13" t="n">
-        <v>18.80460160329249</v>
+        <v>18.787872090706</v>
       </c>
       <c r="P13" t="n">
-        <v>355.5552101837802</v>
+        <v>355.4081603478884</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -13914,28 +13958,28 @@
         <v>0.0538</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2996606198735574</v>
+        <v>-0.2895441205223765</v>
       </c>
       <c r="J14" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K14" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01346179615670451</v>
+        <v>0.01271105545770668</v>
       </c>
       <c r="M14" t="n">
-        <v>15.6992158186137</v>
+        <v>15.66323283068072</v>
       </c>
       <c r="N14" t="n">
-        <v>385.8971788657064</v>
+        <v>384.3061958478225</v>
       </c>
       <c r="O14" t="n">
-        <v>19.64426580113664</v>
+        <v>19.60372913115825</v>
       </c>
       <c r="P14" t="n">
-        <v>357.9173912220164</v>
+        <v>357.8263179712202</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -13992,28 +14036,28 @@
         <v>0.0346</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2954828189295041</v>
+        <v>-0.2710322916338194</v>
       </c>
       <c r="J15" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K15" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01052842049470082</v>
+        <v>0.008952721167106992</v>
       </c>
       <c r="M15" t="n">
-        <v>17.4688841072945</v>
+        <v>17.48684812797442</v>
       </c>
       <c r="N15" t="n">
-        <v>472.4372182871092</v>
+        <v>472.0700772583639</v>
       </c>
       <c r="O15" t="n">
-        <v>21.73562095471646</v>
+        <v>21.72717370617642</v>
       </c>
       <c r="P15" t="n">
-        <v>360.6367913458585</v>
+        <v>360.4206041361587</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -14051,7 +14095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:P205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29295,6 +29339,48 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>-34.46230619220313,173.00311475289297</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>-34.46305085747981,173.00315393686816</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>-34.4637905867706,173.00308886420999</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>-34.464533809409815,173.00321600280185</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0006/nzd0006.xlsx
+++ b/data/nzd0006/nzd0006.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P205"/>
+  <dimension ref="A1:P206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10768,6 +10768,60 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>344.7544444444445</v>
+      </c>
+      <c r="C206" t="n">
+        <v>329.5244444444444</v>
+      </c>
+      <c r="D206" t="n">
+        <v>323.1644444444445</v>
+      </c>
+      <c r="E206" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>298.37</v>
+      </c>
+      <c r="G206" t="n">
+        <v>304.7</v>
+      </c>
+      <c r="H206" t="n">
+        <v>308.46</v>
+      </c>
+      <c r="I206" t="n">
+        <v>315.45</v>
+      </c>
+      <c r="J206" t="n">
+        <v>317.8444444444444</v>
+      </c>
+      <c r="K206" t="n">
+        <v>323.9044444444444</v>
+      </c>
+      <c r="L206" t="n">
+        <v>342.5692307692308</v>
+      </c>
+      <c r="M206" t="n">
+        <v>342.88</v>
+      </c>
+      <c r="N206" t="n">
+        <v>348.7644444444445</v>
+      </c>
+      <c r="O206" t="n">
+        <v>347.3666666666667</v>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10779,7 +10833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12867,6 +12921,16 @@
       </c>
       <c r="B208" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.34</v>
       </c>
     </row>
   </sheetData>
@@ -13040,28 +13104,28 @@
         <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1375343071469712</v>
+        <v>-0.1524160613572685</v>
       </c>
       <c r="J2" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K2" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006656519286158957</v>
+        <v>0.008216423815533336</v>
       </c>
       <c r="M2" t="n">
-        <v>10.30583700929505</v>
+        <v>10.32269148649539</v>
       </c>
       <c r="N2" t="n">
-        <v>165.9118858223186</v>
+        <v>165.9715693771356</v>
       </c>
       <c r="O2" t="n">
-        <v>12.88067877956432</v>
+        <v>12.88299535733579</v>
       </c>
       <c r="P2" t="n">
-        <v>361.6782918825971</v>
+        <v>361.8129608270561</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13112,28 +13176,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1072647097423728</v>
+        <v>-0.1317843876563344</v>
       </c>
       <c r="J3" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K3" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002715006431114997</v>
+        <v>0.004115925359680639</v>
       </c>
       <c r="M3" t="n">
-        <v>12.57607340312262</v>
+        <v>12.62816633365151</v>
       </c>
       <c r="N3" t="n">
-        <v>241.4459293645492</v>
+        <v>242.1772218233284</v>
       </c>
       <c r="O3" t="n">
-        <v>15.53853047635294</v>
+        <v>15.5620442687755</v>
       </c>
       <c r="P3" t="n">
-        <v>351.3524791769441</v>
+        <v>351.5741806116658</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13190,28 +13254,28 @@
         <v>0.0503</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2322777311977675</v>
+        <v>-0.2452970594940863</v>
       </c>
       <c r="J4" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K4" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01112759135038632</v>
+        <v>0.01252039022038975</v>
       </c>
       <c r="M4" t="n">
-        <v>13.4339035185625</v>
+        <v>13.42266342411495</v>
       </c>
       <c r="N4" t="n">
-        <v>280.5372092844119</v>
+        <v>279.6883245003089</v>
       </c>
       <c r="O4" t="n">
-        <v>16.74924503625199</v>
+        <v>16.72388485072499</v>
       </c>
       <c r="P4" t="n">
-        <v>340.750746944286</v>
+        <v>340.8681120847557</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13262,28 +13326,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.3049681525644067</v>
+        <v>-0.3266665319006302</v>
       </c>
       <c r="J5" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K5" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01792689974339878</v>
+        <v>0.02063205821624425</v>
       </c>
       <c r="M5" t="n">
-        <v>13.93028658433832</v>
+        <v>13.95978707917918</v>
       </c>
       <c r="N5" t="n">
-        <v>299.6182187315679</v>
+        <v>300.0211494689659</v>
       </c>
       <c r="O5" t="n">
-        <v>17.3094834911839</v>
+        <v>17.32111859750882</v>
       </c>
       <c r="P5" t="n">
-        <v>339.4142953111403</v>
+        <v>339.6095205380802</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13340,28 +13404,28 @@
         <v>0.0418</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4756919780062425</v>
+        <v>-0.5071452339581279</v>
       </c>
       <c r="J6" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K6" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03803945777275208</v>
+        <v>0.04295266650188689</v>
       </c>
       <c r="M6" t="n">
-        <v>14.44074594621592</v>
+        <v>14.5254821590768</v>
       </c>
       <c r="N6" t="n">
-        <v>333.4421272711756</v>
+        <v>336.2075255263521</v>
       </c>
       <c r="O6" t="n">
-        <v>18.26039778512986</v>
+        <v>18.33596262884368</v>
       </c>
       <c r="P6" t="n">
-        <v>339.55569049133</v>
+        <v>339.842520814139</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13412,28 +13476,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.2572727329121472</v>
+        <v>-0.2821652824541065</v>
       </c>
       <c r="J7" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K7" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01158166478838674</v>
+        <v>0.01394728888427033</v>
       </c>
       <c r="M7" t="n">
-        <v>14.12845623833297</v>
+        <v>14.1848195768777</v>
       </c>
       <c r="N7" t="n">
-        <v>330.0956252219209</v>
+        <v>331.1618830672242</v>
       </c>
       <c r="O7" t="n">
-        <v>18.16853393155102</v>
+        <v>18.19785380387545</v>
       </c>
       <c r="P7" t="n">
-        <v>334.3006050581005</v>
+        <v>334.5272130772626</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13490,28 +13554,28 @@
         <v>0.048</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2659303654498724</v>
+        <v>-0.2841484285610604</v>
       </c>
       <c r="J8" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K8" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01062760427396137</v>
+        <v>0.01222301935344616</v>
       </c>
       <c r="M8" t="n">
-        <v>15.08285718356224</v>
+        <v>15.09825781594492</v>
       </c>
       <c r="N8" t="n">
-        <v>380.9716134230117</v>
+        <v>380.286196305808</v>
       </c>
       <c r="O8" t="n">
-        <v>19.51849413820164</v>
+        <v>19.50092808831949</v>
       </c>
       <c r="P8" t="n">
-        <v>331.5821178776879</v>
+        <v>331.7482076871474</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -13568,28 +13632,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1958673612568081</v>
+        <v>-0.2067704267739406</v>
       </c>
       <c r="J9" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K9" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006650003344185973</v>
+        <v>0.00748594147762105</v>
       </c>
       <c r="M9" t="n">
-        <v>14.34983432175015</v>
+        <v>14.32726702233994</v>
       </c>
       <c r="N9" t="n">
-        <v>336.4004927312208</v>
+        <v>335.0555066799546</v>
       </c>
       <c r="O9" t="n">
-        <v>18.34122386132454</v>
+        <v>18.3045214818622</v>
       </c>
       <c r="P9" t="n">
-        <v>330.4767237677945</v>
+        <v>330.5753103010555</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -13646,28 +13710,28 @@
         <v>0.0502</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2947828640423448</v>
+        <v>-0.3077723715561034</v>
       </c>
       <c r="J10" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K10" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01503799264564087</v>
+        <v>0.01653675704713997</v>
       </c>
       <c r="M10" t="n">
-        <v>14.3858881215551</v>
+        <v>14.37139973807954</v>
       </c>
       <c r="N10" t="n">
-        <v>333.697274426546</v>
+        <v>332.6569135015271</v>
       </c>
       <c r="O10" t="n">
-        <v>18.26738280177393</v>
+        <v>18.23888465618244</v>
       </c>
       <c r="P10" t="n">
-        <v>337.4788654635667</v>
+        <v>337.5947908116832</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -13724,28 +13788,28 @@
         <v>0.0482</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1676636806517823</v>
+        <v>-0.1824637028073896</v>
       </c>
       <c r="J11" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K11" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005042835830138204</v>
+        <v>0.006021216306557164</v>
       </c>
       <c r="M11" t="n">
-        <v>14.45059872721252</v>
+        <v>14.45216023603769</v>
       </c>
       <c r="N11" t="n">
-        <v>327.5324752263709</v>
+        <v>326.8488218456411</v>
       </c>
       <c r="O11" t="n">
-        <v>18.09785830495893</v>
+        <v>18.07896075126115</v>
       </c>
       <c r="P11" t="n">
-        <v>342.4085036883238</v>
+        <v>342.5393124523195</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -13802,28 +13866,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3250402732460644</v>
+        <v>-0.3244787834147234</v>
       </c>
       <c r="J12" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K12" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01819247293019755</v>
+        <v>0.01834294715800056</v>
       </c>
       <c r="M12" t="n">
-        <v>14.65807026218388</v>
+        <v>14.58306619932441</v>
       </c>
       <c r="N12" t="n">
-        <v>330.7235759883395</v>
+        <v>328.9752595469349</v>
       </c>
       <c r="O12" t="n">
-        <v>18.18580699304651</v>
+        <v>18.13767514173012</v>
       </c>
       <c r="P12" t="n">
-        <v>350.3539948980243</v>
+        <v>350.3488741748284</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -13880,28 +13944,28 @@
         <v>0.0473</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2573775085973213</v>
+        <v>-0.2635612351076263</v>
       </c>
       <c r="J13" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K13" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01085338120523893</v>
+        <v>0.01150523498341627</v>
       </c>
       <c r="M13" t="n">
-        <v>14.98756226505995</v>
+        <v>14.9384322998997</v>
       </c>
       <c r="N13" t="n">
-        <v>352.9841376967296</v>
+        <v>351.2723256277283</v>
       </c>
       <c r="O13" t="n">
-        <v>18.787872090706</v>
+        <v>18.74226041937654</v>
       </c>
       <c r="P13" t="n">
-        <v>355.4081603478884</v>
+        <v>355.4641682059781</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -13958,28 +14022,28 @@
         <v>0.0538</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2895441205223765</v>
+        <v>-0.2912373999204906</v>
       </c>
       <c r="J14" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K14" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01271105545770668</v>
+        <v>0.01300865375871496</v>
       </c>
       <c r="M14" t="n">
-        <v>15.66323283068072</v>
+        <v>15.58788317909234</v>
       </c>
       <c r="N14" t="n">
-        <v>384.3061958478225</v>
+        <v>382.2431886705855</v>
       </c>
       <c r="O14" t="n">
-        <v>19.60372913115825</v>
+        <v>19.55104060326676</v>
       </c>
       <c r="P14" t="n">
-        <v>357.8263179712202</v>
+        <v>357.8416467535193</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -14036,28 +14100,28 @@
         <v>0.0346</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2710322916338194</v>
+        <v>-0.2782534094657328</v>
       </c>
       <c r="J15" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K15" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008952721167106992</v>
+        <v>0.00955974952402816</v>
       </c>
       <c r="M15" t="n">
-        <v>17.48684812797442</v>
+        <v>17.41904456286392</v>
       </c>
       <c r="N15" t="n">
-        <v>472.0700772583639</v>
+        <v>469.5083359993155</v>
       </c>
       <c r="O15" t="n">
-        <v>21.72717370617642</v>
+        <v>21.66814103699982</v>
       </c>
       <c r="P15" t="n">
-        <v>360.4206041361587</v>
+        <v>360.4847829520462</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -14095,7 +14159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P205"/>
+  <dimension ref="A1:P206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29381,6 +29445,88 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>-34.454912579638126,173.0034016226295</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>-34.45565011284666,173.003216127421</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>-34.456389392596634,173.00312717551466</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>-34.45712775552344,173.0029881045082</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>-34.457865545237425,173.00281784048804</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>-34.45860731381171,173.00286701271858</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>-34.45933986844211,173.00288853935632</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>-34.46006652731727,173.0029151371782</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>-34.46079892309705,173.00286195483238</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>-34.46154151052813,173.00284779710387</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>-34.46229751687364,173.00296999478158</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>-34.46304337149723,173.0029229601366</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>-34.46378828880064,173.0029664885933</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>-34.46452845547752,173.0029308764589</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0006/nzd0006.xlsx
+++ b/data/nzd0006/nzd0006.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P206"/>
+  <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10822,6 +10822,60 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>337.9333333333333</v>
+      </c>
+      <c r="C207" t="n">
+        <v>325.5033333333333</v>
+      </c>
+      <c r="D207" t="n">
+        <v>307.2533333333333</v>
+      </c>
+      <c r="E207" t="n">
+        <v>307.6217647058824</v>
+      </c>
+      <c r="F207" t="n">
+        <v>304.46</v>
+      </c>
+      <c r="G207" t="n">
+        <v>303.06</v>
+      </c>
+      <c r="H207" t="n">
+        <v>308.94</v>
+      </c>
+      <c r="I207" t="n">
+        <v>312.86</v>
+      </c>
+      <c r="J207" t="n">
+        <v>313.6733333333333</v>
+      </c>
+      <c r="K207" t="n">
+        <v>320.7733333333333</v>
+      </c>
+      <c r="L207" t="n">
+        <v>332.0030769230769</v>
+      </c>
+      <c r="M207" t="n">
+        <v>342.54</v>
+      </c>
+      <c r="N207" t="n">
+        <v>335.0933333333333</v>
+      </c>
+      <c r="O207" t="n">
+        <v>334.3</v>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10833,7 +10887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12931,6 +12985,16 @@
       </c>
       <c r="B209" t="n">
         <v>-0.34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -13104,28 +13168,28 @@
         <v>0.05</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1524160613572685</v>
+        <v>-0.1742357980535219</v>
       </c>
       <c r="J2" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K2" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008216423815533336</v>
+        <v>0.01069954322495037</v>
       </c>
       <c r="M2" t="n">
-        <v>10.32269148649539</v>
+        <v>10.37454939254963</v>
       </c>
       <c r="N2" t="n">
-        <v>165.9715693771356</v>
+        <v>167.2682243820439</v>
       </c>
       <c r="O2" t="n">
-        <v>12.88299535733579</v>
+        <v>12.9332217325013</v>
       </c>
       <c r="P2" t="n">
-        <v>361.8129608270561</v>
+        <v>362.0106317113228</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13176,28 +13240,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1317843876563344</v>
+        <v>-0.160389129629182</v>
       </c>
       <c r="J3" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K3" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004115925359680639</v>
+        <v>0.006094404580583634</v>
       </c>
       <c r="M3" t="n">
-        <v>12.62816633365151</v>
+        <v>12.70650142141668</v>
       </c>
       <c r="N3" t="n">
-        <v>242.1772218233284</v>
+        <v>243.8349645619383</v>
       </c>
       <c r="O3" t="n">
-        <v>15.5620442687755</v>
+        <v>15.61521580260543</v>
       </c>
       <c r="P3" t="n">
-        <v>351.5741806116658</v>
+        <v>351.8330848126906</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13254,28 +13318,28 @@
         <v>0.0503</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2452970594940863</v>
+        <v>-0.2753720546393152</v>
       </c>
       <c r="J4" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K4" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01252039022038975</v>
+        <v>0.01569332443080229</v>
       </c>
       <c r="M4" t="n">
-        <v>13.42266342411495</v>
+        <v>13.49872298011896</v>
       </c>
       <c r="N4" t="n">
-        <v>279.6883245003089</v>
+        <v>282.2781348914266</v>
       </c>
       <c r="O4" t="n">
-        <v>16.72388485072499</v>
+        <v>16.80113492867153</v>
       </c>
       <c r="P4" t="n">
-        <v>340.8681120847557</v>
+        <v>341.1395229051804</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13326,28 +13390,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.3266665319006302</v>
+        <v>-0.3526402701261864</v>
       </c>
       <c r="J5" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K5" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02063205821624425</v>
+        <v>0.02401384471163159</v>
       </c>
       <c r="M5" t="n">
-        <v>13.95978707917918</v>
+        <v>14.01405241498273</v>
       </c>
       <c r="N5" t="n">
-        <v>300.0211494689659</v>
+        <v>301.4416990901486</v>
       </c>
       <c r="O5" t="n">
-        <v>17.32111859750882</v>
+        <v>17.36207646251302</v>
       </c>
       <c r="P5" t="n">
-        <v>339.6095205380802</v>
+        <v>339.8434681607554</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13404,28 +13468,28 @@
         <v>0.0418</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5071452339581279</v>
+        <v>-0.5310350330263024</v>
       </c>
       <c r="J6" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K6" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04295266650188689</v>
+        <v>0.04707988148384479</v>
       </c>
       <c r="M6" t="n">
-        <v>14.5254821590768</v>
+        <v>14.56938558147551</v>
       </c>
       <c r="N6" t="n">
-        <v>336.2075255263521</v>
+        <v>337.0768579336699</v>
       </c>
       <c r="O6" t="n">
-        <v>18.33596262884368</v>
+        <v>18.35965299055704</v>
       </c>
       <c r="P6" t="n">
-        <v>339.842520814139</v>
+        <v>340.0606167910616</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13476,28 +13540,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.2821652824541065</v>
+        <v>-0.3079686904611063</v>
       </c>
       <c r="J7" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K7" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01394728888427033</v>
+        <v>0.01661020266568913</v>
       </c>
       <c r="M7" t="n">
-        <v>14.1848195768777</v>
+        <v>14.24523227716051</v>
       </c>
       <c r="N7" t="n">
-        <v>331.1618830672242</v>
+        <v>332.533962063673</v>
       </c>
       <c r="O7" t="n">
-        <v>18.19785380387545</v>
+        <v>18.23551375924663</v>
       </c>
       <c r="P7" t="n">
-        <v>334.5272130772626</v>
+        <v>334.7623715611122</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13554,28 +13618,28 @@
         <v>0.048</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2841484285610604</v>
+        <v>-0.3012051825459645</v>
       </c>
       <c r="J8" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K8" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01222301935344616</v>
+        <v>0.01383710892723966</v>
       </c>
       <c r="M8" t="n">
-        <v>15.09825781594492</v>
+        <v>15.10792577839961</v>
       </c>
       <c r="N8" t="n">
-        <v>380.286196305808</v>
+        <v>379.4692662291322</v>
       </c>
       <c r="O8" t="n">
-        <v>19.50092808831949</v>
+        <v>19.4799708990833</v>
       </c>
       <c r="P8" t="n">
-        <v>331.7482076871474</v>
+        <v>331.9038774948262</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -13632,28 +13696,28 @@
         <v>0.0581</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2067704267739406</v>
+        <v>-0.2200782655711325</v>
       </c>
       <c r="J9" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K9" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00748594147762105</v>
+        <v>0.00855460539697106</v>
       </c>
       <c r="M9" t="n">
-        <v>14.32726702233994</v>
+        <v>14.31765380519882</v>
       </c>
       <c r="N9" t="n">
-        <v>335.0555066799546</v>
+        <v>334.0232680571989</v>
       </c>
       <c r="O9" t="n">
-        <v>18.3045214818622</v>
+        <v>18.27630345713265</v>
       </c>
       <c r="P9" t="n">
-        <v>330.5753103010555</v>
+        <v>330.6957733669964</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -13710,28 +13774,28 @@
         <v>0.0502</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3077723715561034</v>
+        <v>-0.3247335058498997</v>
       </c>
       <c r="J10" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K10" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01653675704713997</v>
+        <v>0.01852480296073522</v>
       </c>
       <c r="M10" t="n">
-        <v>14.37139973807954</v>
+        <v>14.37641319786731</v>
       </c>
       <c r="N10" t="n">
-        <v>332.6569135015271</v>
+        <v>332.220419556107</v>
       </c>
       <c r="O10" t="n">
-        <v>18.23888465618244</v>
+        <v>18.22691470205825</v>
       </c>
       <c r="P10" t="n">
-        <v>337.5947908116832</v>
+        <v>337.7463232622138</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -13788,28 +13852,28 @@
         <v>0.0482</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1824637028073896</v>
+        <v>-0.1999884615082875</v>
       </c>
       <c r="J11" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K11" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006021216306557164</v>
+        <v>0.007278403780005105</v>
       </c>
       <c r="M11" t="n">
-        <v>14.45216023603769</v>
+        <v>14.46782721619197</v>
       </c>
       <c r="N11" t="n">
-        <v>326.8488218456411</v>
+        <v>326.6385904292754</v>
       </c>
       <c r="O11" t="n">
-        <v>18.07896075126115</v>
+        <v>18.0731455598984</v>
       </c>
       <c r="P11" t="n">
-        <v>342.5393124523195</v>
+        <v>342.6943697707126</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -13866,28 +13930,28 @@
         <v>0.0762</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3244787834147234</v>
+        <v>-0.3346554786634262</v>
       </c>
       <c r="J12" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K12" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01834294715800056</v>
+        <v>0.01968174923770227</v>
       </c>
       <c r="M12" t="n">
-        <v>14.58306619932441</v>
+        <v>14.56440388268108</v>
       </c>
       <c r="N12" t="n">
-        <v>328.9752595469349</v>
+        <v>327.7637353959321</v>
       </c>
       <c r="O12" t="n">
-        <v>18.13767514173012</v>
+        <v>18.10424633603764</v>
       </c>
       <c r="P12" t="n">
-        <v>350.3488741748284</v>
+        <v>350.441784902088</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -13944,28 +14008,28 @@
         <v>0.0473</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2635612351076263</v>
+        <v>-0.2698892990288817</v>
       </c>
       <c r="J13" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K13" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01150523498341627</v>
+        <v>0.01219216860573658</v>
       </c>
       <c r="M13" t="n">
-        <v>14.9384322998997</v>
+        <v>14.89049772496018</v>
       </c>
       <c r="N13" t="n">
-        <v>351.2723256277283</v>
+        <v>349.5936062836854</v>
       </c>
       <c r="O13" t="n">
-        <v>18.74226041937654</v>
+        <v>18.69742245026531</v>
       </c>
       <c r="P13" t="n">
-        <v>355.4641682059781</v>
+        <v>355.521545901264</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -14022,28 +14086,28 @@
         <v>0.0538</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2912373999204906</v>
+        <v>-0.3067582576942438</v>
       </c>
       <c r="J14" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K14" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01300865375871496</v>
+        <v>0.0145308604900185</v>
       </c>
       <c r="M14" t="n">
-        <v>15.58788317909234</v>
+        <v>15.58885581721929</v>
       </c>
       <c r="N14" t="n">
-        <v>382.2431886705855</v>
+        <v>381.4220031855541</v>
       </c>
       <c r="O14" t="n">
-        <v>19.55104060326676</v>
+        <v>19.53002824333734</v>
       </c>
       <c r="P14" t="n">
-        <v>357.8416467535193</v>
+        <v>357.9823096511686</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -14100,28 +14164,28 @@
         <v>0.0346</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2782534094657328</v>
+        <v>-0.3003744370155218</v>
       </c>
       <c r="J15" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K15" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00955974952402816</v>
+        <v>0.01122570285607061</v>
       </c>
       <c r="M15" t="n">
-        <v>17.41904456286392</v>
+        <v>17.42472255997513</v>
       </c>
       <c r="N15" t="n">
-        <v>469.5083359993155</v>
+        <v>468.8432069607463</v>
       </c>
       <c r="O15" t="n">
-        <v>21.66814103699982</v>
+        <v>21.65278751017398</v>
       </c>
       <c r="P15" t="n">
-        <v>360.4847829520462</v>
+        <v>360.6815916294681</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -14159,7 +14223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P206"/>
+  <dimension ref="A1:P207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29527,6 +29591,88 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>-34.45491123144721,173.0033273790092</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>-34.455649318016704,173.00317235970385</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>-34.45638624733117,173.00295398977156</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>-34.45712685048164,173.00293827190671</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>-34.457866749187154,173.0028841287388</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>-34.45860698959745,173.00284916153763</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>-34.459340037378304,173.00289376141237</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>-34.460064834720484,173.00288701224545</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>-34.460795583804575,173.00281672004652</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>-34.461539003840656,173.0028138405887</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>-34.46229064016775,173.00285525088123</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>-34.463043251605114,173.00291926102767</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>-34.46378549418784,173.00281767365982</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>-34.46452578439475,173.0027886398647</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0006/nzd0006.xlsx
+++ b/data/nzd0006/nzd0006.xlsx
@@ -13159,13 +13159,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0429</v>
+        <v>0.0545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>-0.174242166639948</v>
@@ -13236,9 +13236,15 @@
       <c r="E3" t="n">
         <v>0.07692965658764768</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0439</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0646</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.1603958365364938</v>
       </c>
@@ -13309,13 +13315,13 @@
         <v>0.1538593131759487</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0391</v>
+        <v>0.0543</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0503</v>
+        <v>0.1017</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2753782148313131</v>
@@ -13386,9 +13392,15 @@
       <c r="E5" t="n">
         <v>0.2307889697642497</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="I5" t="n">
         <v>-0.3526306556565529</v>
       </c>
@@ -13459,13 +13471,13 @@
         <v>0.3077186263522555</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0344</v>
+        <v>0.0425</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0418</v>
+        <v>0.0575</v>
       </c>
       <c r="I6" t="n">
         <v>-0.5310350330263024</v>
@@ -13536,9 +13548,15 @@
       <c r="E7" t="n">
         <v>0.3846482829402613</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0372</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0491</v>
+      </c>
       <c r="I7" t="n">
         <v>-0.3079686904611063</v>
       </c>
@@ -13612,10 +13630,10 @@
         <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.038</v>
+        <v>0.0364</v>
       </c>
       <c r="H8" t="n">
-        <v>0.048</v>
+        <v>0.0505</v>
       </c>
       <c r="I8" t="n">
         <v>-0.3012051825459645</v>
@@ -13687,13 +13705,13 @@
         <v>0.5384643581056751</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0442</v>
+        <v>0.0448</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0581</v>
+        <v>0.067</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2200782655711327</v>
@@ -13765,13 +13783,13 @@
         <v>0.6153940146941014</v>
       </c>
       <c r="F10" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0385</v>
+        <v>0.0439</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0502</v>
+        <v>0.0616</v>
       </c>
       <c r="I10" t="n">
         <v>-0.3247362603366712</v>
@@ -13846,10 +13864,10 @@
         <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0386</v>
+        <v>0.0392</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0482</v>
+        <v>0.0474</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1999938208756067</v>
@@ -13921,13 +13939,13 @@
         <v>0.7692533278695267</v>
       </c>
       <c r="F12" t="n">
-        <v>0.065</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0543</v>
+        <v>0.0476</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0762</v>
+        <v>0.0615</v>
       </c>
       <c r="I12" t="n">
         <v>-0.334663925209025</v>
@@ -13999,13 +14017,13 @@
         <v>0.8461406868235875</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0377</v>
+        <v>0.0444</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0473</v>
+        <v>0.058</v>
       </c>
       <c r="I13" t="n">
         <v>-0.2698892990288817</v>
@@ -14080,10 +14098,10 @@
         <v>0.045</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0383</v>
+        <v>0.039</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0538</v>
+        <v>0.0491</v>
       </c>
       <c r="I14" t="n">
         <v>-0.3067667753074196</v>
@@ -14155,13 +14173,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0266</v>
+        <v>0.0293</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0346</v>
+        <v>0.0405</v>
       </c>
       <c r="I15" t="n">
         <v>-0.300321559268616</v>

--- a/data/nzd0006/nzd0006.xlsx
+++ b/data/nzd0006/nzd0006.xlsx
@@ -528,7 +528,7 @@
         <v>375.72</v>
       </c>
       <c r="C2" t="n">
-        <v>365.27</v>
+        <v>364.54</v>
       </c>
       <c r="D2" t="n">
         <v>338.72</v>
@@ -582,7 +582,7 @@
         <v>354.51</v>
       </c>
       <c r="C3" t="n">
-        <v>351.2</v>
+        <v>351.65</v>
       </c>
       <c r="D3" t="n">
         <v>337.36</v>
@@ -636,7 +636,7 @@
         <v>372.17</v>
       </c>
       <c r="C4" t="n">
-        <v>357.29</v>
+        <v>358.33</v>
       </c>
       <c r="D4" t="n">
         <v>349.54</v>
@@ -690,7 +690,7 @@
         <v>349.24</v>
       </c>
       <c r="C5" t="n">
-        <v>345.43</v>
+        <v>346.14</v>
       </c>
       <c r="D5" t="n">
         <v>335.01</v>
@@ -744,7 +744,7 @@
         <v>349.39</v>
       </c>
       <c r="C6" t="n">
-        <v>330.61</v>
+        <v>328.96</v>
       </c>
       <c r="D6" t="n">
         <v>322.03</v>
@@ -798,7 +798,7 @@
         <v>326.37</v>
       </c>
       <c r="C7" t="n">
-        <v>304.24</v>
+        <v>303</v>
       </c>
       <c r="D7" t="n">
         <v>304.61</v>
@@ -852,7 +852,7 @@
         <v>367.29</v>
       </c>
       <c r="C8" t="n">
-        <v>348.52</v>
+        <v>349.32</v>
       </c>
       <c r="D8" t="n">
         <v>351.6</v>
@@ -904,7 +904,7 @@
         <v>358.62</v>
       </c>
       <c r="C9" t="n">
-        <v>349.68</v>
+        <v>350.33</v>
       </c>
       <c r="D9" t="n">
         <v>328.48</v>
@@ -1030,7 +1030,7 @@
         <v>354.92</v>
       </c>
       <c r="C12" t="n">
-        <v>346.58</v>
+        <v>347.34</v>
       </c>
       <c r="D12" t="n">
         <v>327.66</v>
@@ -1084,7 +1084,7 @@
         <v>342.84</v>
       </c>
       <c r="C13" t="n">
-        <v>335.96</v>
+        <v>334.36</v>
       </c>
       <c r="D13" t="n">
         <v>315.17</v>
@@ -1138,7 +1138,7 @@
         <v>366.35</v>
       </c>
       <c r="C14" t="n">
-        <v>352.57</v>
+        <v>351.3</v>
       </c>
       <c r="D14" t="n">
         <v>338.52</v>
@@ -1192,7 +1192,7 @@
         <v>361.33</v>
       </c>
       <c r="C15" t="n">
-        <v>357.52</v>
+        <v>357.21</v>
       </c>
       <c r="D15" t="n">
         <v>334.01</v>
@@ -1246,7 +1246,7 @@
         <v>366.78</v>
       </c>
       <c r="C16" t="n">
-        <v>354.51</v>
+        <v>353.95</v>
       </c>
       <c r="D16" t="n">
         <v>326.51</v>
@@ -1352,7 +1352,7 @@
         <v>358.85</v>
       </c>
       <c r="C18" t="n">
-        <v>355.07</v>
+        <v>355</v>
       </c>
       <c r="D18" t="n">
         <v>329.44</v>
@@ -1444,7 +1444,7 @@
         <v>365.36</v>
       </c>
       <c r="C20" t="n">
-        <v>356.58</v>
+        <v>356.38</v>
       </c>
       <c r="D20" t="n">
         <v>337.84</v>
@@ -1498,7 +1498,7 @@
         <v>355.69</v>
       </c>
       <c r="C21" t="n">
-        <v>349.91</v>
+        <v>350.96</v>
       </c>
       <c r="D21" t="n">
         <v>334.26</v>
@@ -1552,7 +1552,7 @@
         <v>339.29</v>
       </c>
       <c r="C22" t="n">
-        <v>322.55</v>
+        <v>323.35</v>
       </c>
       <c r="D22" t="n">
         <v>314.26</v>
@@ -1604,7 +1604,7 @@
         <v>349.6</v>
       </c>
       <c r="C23" t="n">
-        <v>341.44</v>
+        <v>342</v>
       </c>
       <c r="D23" t="n">
         <v>332.5</v>
@@ -1658,7 +1658,7 @@
         <v>368.45</v>
       </c>
       <c r="C24" t="n">
-        <v>359.36</v>
+        <v>357.54</v>
       </c>
       <c r="D24" t="n">
         <v>341.06</v>
@@ -1710,7 +1710,7 @@
         <v>348.4</v>
       </c>
       <c r="C25" t="n">
-        <v>332.85</v>
+        <v>332.41</v>
       </c>
       <c r="D25" t="n">
         <v>321.56</v>
@@ -1798,7 +1798,7 @@
         <v>355.66</v>
       </c>
       <c r="C27" t="n">
-        <v>345.38</v>
+        <v>344.34</v>
       </c>
       <c r="D27" t="n">
         <v>328.53</v>
@@ -1924,7 +1924,7 @@
         <v>359.21</v>
       </c>
       <c r="C30" t="n">
-        <v>339.92</v>
+        <v>339.05</v>
       </c>
       <c r="D30" t="n">
         <v>335.95</v>
@@ -1978,7 +1978,7 @@
         <v>379.32</v>
       </c>
       <c r="C31" t="n">
-        <v>374.38</v>
+        <v>372.58</v>
       </c>
       <c r="D31" t="n">
         <v>349.87</v>
@@ -2020,7 +2020,7 @@
         <v>365.27</v>
       </c>
       <c r="C32" t="n">
-        <v>356.04</v>
+        <v>356.09</v>
       </c>
       <c r="D32" t="n">
         <v>333.39</v>
@@ -2066,7 +2066,7 @@
         <v>362.1</v>
       </c>
       <c r="C33" t="n">
-        <v>345.83</v>
+        <v>343.81</v>
       </c>
       <c r="D33" t="n">
         <v>332.88</v>
@@ -2222,7 +2222,7 @@
         <v>362.48</v>
       </c>
       <c r="C36" t="n">
-        <v>353.24</v>
+        <v>352.97</v>
       </c>
       <c r="D36" t="n">
         <v>341.07</v>
@@ -2276,7 +2276,7 @@
         <v>330.07</v>
       </c>
       <c r="C37" t="n">
-        <v>311.59</v>
+        <v>311.92</v>
       </c>
       <c r="D37" t="n">
         <v>314.68</v>
@@ -2324,7 +2324,7 @@
         <v>352.36</v>
       </c>
       <c r="C38" t="n">
-        <v>334.9</v>
+        <v>334.55</v>
       </c>
       <c r="D38" t="n">
         <v>323.91</v>
@@ -2476,7 +2476,7 @@
         <v>348.88</v>
       </c>
       <c r="C41" t="n">
-        <v>338.04</v>
+        <v>338.89</v>
       </c>
       <c r="D41" t="n">
         <v>339.38</v>
@@ -2524,7 +2524,7 @@
         <v>340.43</v>
       </c>
       <c r="C42" t="n">
-        <v>333.24</v>
+        <v>332.42</v>
       </c>
       <c r="D42" t="n">
         <v>310.69</v>
@@ -2630,7 +2630,7 @@
         <v>363.98</v>
       </c>
       <c r="C44" t="n">
-        <v>361.03</v>
+        <v>362.03</v>
       </c>
       <c r="D44" t="n">
         <v>333.39</v>
@@ -2716,7 +2716,7 @@
         <v>346.23</v>
       </c>
       <c r="C46" t="n">
-        <v>334.27</v>
+        <v>333.98</v>
       </c>
       <c r="D46" t="n">
         <v>330.47</v>
@@ -2804,7 +2804,7 @@
         <v>358.13</v>
       </c>
       <c r="C48" t="n">
-        <v>343.35</v>
+        <v>341.51</v>
       </c>
       <c r="D48" t="n">
         <v>330.1</v>
@@ -2854,7 +2854,7 @@
         <v>370.61</v>
       </c>
       <c r="C49" t="n">
-        <v>360.22</v>
+        <v>360.04</v>
       </c>
       <c r="D49" t="n">
         <v>343.7</v>
@@ -2908,7 +2908,7 @@
         <v>360.88</v>
       </c>
       <c r="C50" t="n">
-        <v>353.02</v>
+        <v>352.8</v>
       </c>
       <c r="D50" t="n">
         <v>340.72</v>
@@ -2998,7 +2998,7 @@
         <v>381.65</v>
       </c>
       <c r="C52" t="n">
-        <v>373.33</v>
+        <v>372.55</v>
       </c>
       <c r="D52" t="n">
         <v>366.84</v>
@@ -3052,7 +3052,7 @@
         <v>369.57</v>
       </c>
       <c r="C53" t="n">
-        <v>372.6</v>
+        <v>373.24</v>
       </c>
       <c r="D53" t="n">
         <v>359.02</v>
@@ -3102,7 +3102,7 @@
         <v>357.88</v>
       </c>
       <c r="C54" t="n">
-        <v>348.13</v>
+        <v>347.26</v>
       </c>
       <c r="D54" t="n">
         <v>342.63</v>
@@ -3156,7 +3156,7 @@
         <v>372.86</v>
       </c>
       <c r="C55" t="n">
-        <v>368.58</v>
+        <v>367.6</v>
       </c>
       <c r="D55" t="n">
         <v>350.7</v>
@@ -3282,7 +3282,7 @@
         <v>363.1</v>
       </c>
       <c r="C58" t="n">
-        <v>356.83</v>
+        <v>356.48</v>
       </c>
       <c r="D58" t="n">
         <v>338.6</v>
@@ -3336,7 +3336,7 @@
         <v>341.78</v>
       </c>
       <c r="C59" t="n">
-        <v>331.43</v>
+        <v>329.43</v>
       </c>
       <c r="D59" t="n">
         <v>321.72</v>
@@ -3384,7 +3384,7 @@
         <v>361.84</v>
       </c>
       <c r="C60" t="n">
-        <v>360.35</v>
+        <v>359.57</v>
       </c>
       <c r="D60" t="n">
         <v>340.82</v>
@@ -3438,7 +3438,7 @@
         <v>356.55</v>
       </c>
       <c r="C61" t="n">
-        <v>347.91</v>
+        <v>347.2</v>
       </c>
       <c r="D61" t="n">
         <v>334.58</v>
@@ -3492,7 +3492,7 @@
         <v>349.95</v>
       </c>
       <c r="C62" t="n">
-        <v>345.6</v>
+        <v>346.22</v>
       </c>
       <c r="D62" t="n">
         <v>331.09</v>
@@ -3546,7 +3546,7 @@
         <v>363.63</v>
       </c>
       <c r="C63" t="n">
-        <v>355.53</v>
+        <v>354.44</v>
       </c>
       <c r="D63" t="n">
         <v>343.22</v>
@@ -3600,7 +3600,7 @@
         <v>359.43</v>
       </c>
       <c r="C64" t="n">
-        <v>355.57</v>
+        <v>356.28</v>
       </c>
       <c r="D64" t="n">
         <v>353.43</v>
@@ -3654,7 +3654,7 @@
         <v>355.5</v>
       </c>
       <c r="C65" t="n">
-        <v>348.21</v>
+        <v>349.32</v>
       </c>
       <c r="D65" t="n">
         <v>333.2</v>
@@ -3708,7 +3708,7 @@
         <v>348.79</v>
       </c>
       <c r="C66" t="n">
-        <v>340.78</v>
+        <v>339.34</v>
       </c>
       <c r="D66" t="n">
         <v>324.18</v>
@@ -3762,7 +3762,7 @@
         <v>368.13</v>
       </c>
       <c r="C67" t="n">
-        <v>359.9</v>
+        <v>360.63</v>
       </c>
       <c r="D67" t="n">
         <v>352.47</v>
@@ -3846,7 +3846,7 @@
         <v>365.27</v>
       </c>
       <c r="C69" t="n">
-        <v>373.53</v>
+        <v>374.68</v>
       </c>
       <c r="D69" t="n">
         <v>365.31</v>
@@ -3900,7 +3900,7 @@
         <v>388.81</v>
       </c>
       <c r="C70" t="n">
-        <v>377.35</v>
+        <v>378.1</v>
       </c>
       <c r="D70" t="n">
         <v>366.61</v>
@@ -3954,7 +3954,7 @@
         <v>367.7</v>
       </c>
       <c r="C71" t="n">
-        <v>357.35</v>
+        <v>356.48</v>
       </c>
       <c r="D71" t="n">
         <v>341.59</v>
@@ -4008,7 +4008,7 @@
         <v>384.43</v>
       </c>
       <c r="C72" t="n">
-        <v>374.7</v>
+        <v>374.3</v>
       </c>
       <c r="D72" t="n">
         <v>362.35</v>
@@ -4056,7 +4056,7 @@
         <v>347.61</v>
       </c>
       <c r="C73" t="n">
-        <v>335.9</v>
+        <v>336.37</v>
       </c>
       <c r="D73" t="n">
         <v>332.29</v>
@@ -4110,7 +4110,7 @@
         <v>377.74</v>
       </c>
       <c r="C74" t="n">
-        <v>374.38</v>
+        <v>375.16</v>
       </c>
       <c r="D74" t="n">
         <v>357.95</v>
@@ -4164,7 +4164,7 @@
         <v>369.36</v>
       </c>
       <c r="C75" t="n">
-        <v>363.43</v>
+        <v>362.99</v>
       </c>
       <c r="D75" t="n">
         <v>349.68</v>
@@ -4218,7 +4218,7 @@
         <v>367.96</v>
       </c>
       <c r="C76" t="n">
-        <v>367.18</v>
+        <v>366.09</v>
       </c>
       <c r="D76" t="n">
         <v>340.93</v>
@@ -4272,7 +4272,7 @@
         <v>359.42</v>
       </c>
       <c r="C77" t="n">
-        <v>358.21</v>
+        <v>357.86</v>
       </c>
       <c r="D77" t="n">
         <v>340.66</v>
@@ -4326,7 +4326,7 @@
         <v>372.54</v>
       </c>
       <c r="C78" t="n">
-        <v>359.87</v>
+        <v>359.14</v>
       </c>
       <c r="D78" t="n">
         <v>340.62</v>
@@ -4380,7 +4380,7 @@
         <v>360.96</v>
       </c>
       <c r="C79" t="n">
-        <v>352.11</v>
+        <v>351.38</v>
       </c>
       <c r="D79" t="n">
         <v>335.78</v>
@@ -4434,7 +4434,7 @@
         <v>359.83</v>
       </c>
       <c r="C80" t="n">
-        <v>353.53</v>
+        <v>351.78</v>
       </c>
       <c r="D80" t="n">
         <v>328.68</v>
@@ -4488,7 +4488,7 @@
         <v>359.23</v>
       </c>
       <c r="C81" t="n">
-        <v>350.17</v>
+        <v>350.88</v>
       </c>
       <c r="D81" t="n">
         <v>336.7</v>
@@ -4542,7 +4542,7 @@
         <v>360.7</v>
       </c>
       <c r="C82" t="n">
-        <v>340.55</v>
+        <v>339.66</v>
       </c>
       <c r="D82" t="n">
         <v>328.13</v>
@@ -4582,7 +4582,7 @@
         <v>361.72</v>
       </c>
       <c r="C83" t="n">
-        <v>360.18</v>
+        <v>359.63</v>
       </c>
       <c r="D83" t="n">
         <v>344.26</v>
@@ -4634,7 +4634,7 @@
         <v>333.69</v>
       </c>
       <c r="C84" t="n">
-        <v>331.5</v>
+        <v>332.95</v>
       </c>
       <c r="D84" t="n">
         <v>314.84</v>
@@ -4688,7 +4688,7 @@
         <v>352.98</v>
       </c>
       <c r="C85" t="n">
-        <v>347.42</v>
+        <v>348.04</v>
       </c>
       <c r="D85" t="n">
         <v>337.46</v>
@@ -4742,7 +4742,7 @@
         <v>345.54</v>
       </c>
       <c r="C86" t="n">
-        <v>336.49</v>
+        <v>335.38</v>
       </c>
       <c r="D86" t="n">
         <v>319.2</v>
@@ -4848,7 +4848,7 @@
         <v>355.62</v>
       </c>
       <c r="C88" t="n">
-        <v>358.54</v>
+        <v>359.52</v>
       </c>
       <c r="D88" t="n">
         <v>339.1</v>
@@ -4944,7 +4944,7 @@
         <v>343.21</v>
       </c>
       <c r="C90" t="n">
-        <v>336.82</v>
+        <v>335.71</v>
       </c>
       <c r="D90" t="n">
         <v>327.28</v>
@@ -5050,7 +5050,7 @@
         <v>345.42</v>
       </c>
       <c r="C92" t="n">
-        <v>334.18</v>
+        <v>333.27</v>
       </c>
       <c r="D92" t="n">
         <v>320.63</v>
@@ -5134,7 +5134,7 @@
         <v>351.67</v>
       </c>
       <c r="C94" t="n">
-        <v>341.89</v>
+        <v>342.78</v>
       </c>
       <c r="D94" t="n">
         <v>328.42</v>
@@ -5188,7 +5188,7 @@
         <v>365.62</v>
       </c>
       <c r="C95" t="n">
-        <v>347.4</v>
+        <v>348.53</v>
       </c>
       <c r="D95" t="n">
         <v>343.34</v>
@@ -5242,7 +5242,7 @@
         <v>359.29</v>
       </c>
       <c r="C96" t="n">
-        <v>348.39</v>
+        <v>347.55</v>
       </c>
       <c r="D96" t="n">
         <v>338.2</v>
@@ -5328,7 +5328,7 @@
         <v>355.06</v>
       </c>
       <c r="C98" t="n">
-        <v>372.84</v>
+        <v>373.86</v>
       </c>
       <c r="D98" t="n">
         <v>363.78</v>
@@ -5454,7 +5454,7 @@
         <v>359</v>
       </c>
       <c r="C101" t="n">
-        <v>333.26</v>
+        <v>332.46</v>
       </c>
       <c r="D101" t="n">
         <v>332.94</v>
@@ -5508,7 +5508,7 @@
         <v>362.5</v>
       </c>
       <c r="C102" t="n">
-        <v>355.69</v>
+        <v>355.13</v>
       </c>
       <c r="D102" t="n">
         <v>338.9</v>
@@ -5562,7 +5562,7 @@
         <v>339.27</v>
       </c>
       <c r="C103" t="n">
-        <v>322.98</v>
+        <v>324.16</v>
       </c>
       <c r="D103" t="n">
         <v>324.43</v>
@@ -5662,7 +5662,7 @@
         <v>350.17</v>
       </c>
       <c r="C105" t="n">
-        <v>363.11</v>
+        <v>362.86</v>
       </c>
       <c r="D105" t="n">
         <v>356.95</v>
@@ -5716,7 +5716,7 @@
         <v>352.47</v>
       </c>
       <c r="C106" t="n">
-        <v>339.37</v>
+        <v>337.21</v>
       </c>
       <c r="D106" t="n">
         <v>326.88</v>
@@ -5770,7 +5770,7 @@
         <v>358.54</v>
       </c>
       <c r="C107" t="n">
-        <v>355.85</v>
+        <v>356.4</v>
       </c>
       <c r="D107" t="n">
         <v>350.47</v>
@@ -5824,7 +5824,7 @@
         <v>353.29</v>
       </c>
       <c r="C108" t="n">
-        <v>355.6</v>
+        <v>356.85</v>
       </c>
       <c r="D108" t="n">
         <v>334.84</v>
@@ -5878,7 +5878,7 @@
         <v>350.88</v>
       </c>
       <c r="C109" t="n">
-        <v>360.09</v>
+        <v>360.73</v>
       </c>
       <c r="D109" t="n">
         <v>354.21</v>
@@ -5932,7 +5932,7 @@
         <v>356.81</v>
       </c>
       <c r="C110" t="n">
-        <v>357.75</v>
+        <v>357.64</v>
       </c>
       <c r="D110" t="n">
         <v>360.45</v>
@@ -6020,7 +6020,7 @@
         <v>345.56</v>
       </c>
       <c r="C112" t="n">
-        <v>323.86</v>
+        <v>322.68</v>
       </c>
       <c r="D112" t="n">
         <v>308.28</v>
@@ -6072,7 +6072,7 @@
         <v>367.01</v>
       </c>
       <c r="C113" t="n">
-        <v>366.83</v>
+        <v>365.68</v>
       </c>
       <c r="D113" t="n">
         <v>342.75</v>
@@ -6160,7 +6160,7 @@
         <v>359</v>
       </c>
       <c r="C115" t="n">
-        <v>344.66</v>
+        <v>343.17</v>
       </c>
       <c r="D115" t="n">
         <v>339.18</v>
@@ -6214,7 +6214,7 @@
         <v>360.58</v>
       </c>
       <c r="C116" t="n">
-        <v>349.25</v>
+        <v>348.9</v>
       </c>
       <c r="D116" t="n">
         <v>332.92</v>
@@ -6342,7 +6342,7 @@
         <v>378.1</v>
       </c>
       <c r="C119" t="n">
-        <v>369.27</v>
+        <v>370.78</v>
       </c>
       <c r="D119" t="n">
         <v>360.95</v>
@@ -6396,7 +6396,7 @@
         <v>368.38</v>
       </c>
       <c r="C120" t="n">
-        <v>368.19</v>
+        <v>367.35</v>
       </c>
       <c r="D120" t="n">
         <v>355.22</v>
@@ -6450,7 +6450,7 @@
         <v>372.58</v>
       </c>
       <c r="C121" t="n">
-        <v>367.64</v>
+        <v>365.79</v>
       </c>
       <c r="D121" t="n">
         <v>351.08</v>
@@ -6504,7 +6504,7 @@
         <v>357.48</v>
       </c>
       <c r="C122" t="n">
-        <v>353.36</v>
+        <v>352.2</v>
       </c>
       <c r="D122" t="n">
         <v>341.65</v>
@@ -6558,7 +6558,7 @@
         <v>356.55</v>
       </c>
       <c r="C123" t="n">
-        <v>370.31</v>
+        <v>371.15</v>
       </c>
       <c r="D123" t="n">
         <v>354.95</v>
@@ -6612,7 +6612,7 @@
         <v>375.43</v>
       </c>
       <c r="C124" t="n">
-        <v>375.32</v>
+        <v>374.32</v>
       </c>
       <c r="D124" t="n">
         <v>363.34</v>
@@ -6646,7 +6646,7 @@
         <v>371.83</v>
       </c>
       <c r="C125" t="n">
-        <v>370.4</v>
+        <v>369.15</v>
       </c>
       <c r="D125" t="n">
         <v>352.87</v>
@@ -6700,7 +6700,7 @@
         <v>360.87</v>
       </c>
       <c r="C126" t="n">
-        <v>358.83</v>
+        <v>358.56</v>
       </c>
       <c r="D126" t="n">
         <v>362.93</v>
@@ -6754,7 +6754,7 @@
         <v>376.23</v>
       </c>
       <c r="C127" t="n">
-        <v>361.01</v>
+        <v>361.48</v>
       </c>
       <c r="D127" t="n">
         <v>351.99</v>
@@ -6808,7 +6808,7 @@
         <v>366.22</v>
       </c>
       <c r="C128" t="n">
-        <v>368.93</v>
+        <v>367.48</v>
       </c>
       <c r="D128" t="n">
         <v>353.99</v>
@@ -6862,7 +6862,7 @@
         <v>370.44</v>
       </c>
       <c r="C129" t="n">
-        <v>362.5</v>
+        <v>362.52</v>
       </c>
       <c r="D129" t="n">
         <v>359.88</v>
@@ -6966,7 +6966,7 @@
         <v>351</v>
       </c>
       <c r="C131" t="n">
-        <v>331.64</v>
+        <v>331.59</v>
       </c>
       <c r="D131" t="n">
         <v>329.19</v>
@@ -7020,7 +7020,7 @@
         <v>336.35</v>
       </c>
       <c r="C132" t="n">
-        <v>323.59</v>
+        <v>325.01</v>
       </c>
       <c r="D132" t="n">
         <v>319.04</v>
@@ -7120,7 +7120,7 @@
         <v>345.26</v>
       </c>
       <c r="C134" t="n">
-        <v>347.13</v>
+        <v>345.73</v>
       </c>
       <c r="D134" t="n">
         <v>334.81</v>
@@ -7156,7 +7156,7 @@
         <v>367.2</v>
       </c>
       <c r="C135" t="n">
-        <v>367.54</v>
+        <v>368.43</v>
       </c>
       <c r="D135" t="n">
         <v>361.25</v>
@@ -7210,7 +7210,7 @@
         <v>363.38</v>
       </c>
       <c r="C136" t="n">
-        <v>370.99</v>
+        <v>370.84</v>
       </c>
       <c r="D136" t="n">
         <v>359.98</v>
@@ -7264,7 +7264,7 @@
         <v>383.33</v>
       </c>
       <c r="C137" t="n">
-        <v>374.3</v>
+        <v>373.86</v>
       </c>
       <c r="D137" t="n">
         <v>365.31</v>
@@ -7318,7 +7318,7 @@
         <v>367.34</v>
       </c>
       <c r="C138" t="n">
-        <v>366.06</v>
+        <v>364.77</v>
       </c>
       <c r="D138" t="n">
         <v>355.41</v>
@@ -7372,7 +7372,7 @@
         <v>356.98</v>
       </c>
       <c r="C139" t="n">
-        <v>357.22</v>
+        <v>357.4</v>
       </c>
       <c r="D139" t="n">
         <v>359.39</v>
@@ -7426,7 +7426,7 @@
         <v>357.34</v>
       </c>
       <c r="C140" t="n">
-        <v>351.27</v>
+        <v>352.02</v>
       </c>
       <c r="D140" t="n">
         <v>351.85</v>
@@ -7516,7 +7516,7 @@
         <v>361.02</v>
       </c>
       <c r="C142" t="n">
-        <v>365.85</v>
+        <v>366.18</v>
       </c>
       <c r="D142" t="n">
         <v>361.11</v>
@@ -7616,7 +7616,7 @@
         <v>339.85</v>
       </c>
       <c r="C144" t="n">
-        <v>334.69</v>
+        <v>335.91</v>
       </c>
       <c r="D144" t="n">
         <v>345.21</v>
@@ -7718,7 +7718,7 @@
         <v>362.64</v>
       </c>
       <c r="C146" t="n">
-        <v>365</v>
+        <v>364.51</v>
       </c>
       <c r="D146" t="n">
         <v>363.4</v>
@@ -7772,7 +7772,7 @@
         <v>367.41</v>
       </c>
       <c r="C147" t="n">
-        <v>362.11</v>
+        <v>359.98</v>
       </c>
       <c r="D147" t="n">
         <v>361.81</v>
@@ -7826,7 +7826,7 @@
         <v>370.16</v>
       </c>
       <c r="C148" t="n">
-        <v>360.14</v>
+        <v>358.65</v>
       </c>
       <c r="D148" t="n">
         <v>357.26</v>
@@ -7880,7 +7880,7 @@
         <v>356.48</v>
       </c>
       <c r="C149" t="n">
-        <v>339.18</v>
+        <v>338.09</v>
       </c>
       <c r="D149" t="n">
         <v>336.96</v>
@@ -7934,7 +7934,7 @@
         <v>368.3</v>
       </c>
       <c r="C150" t="n">
-        <v>350.12</v>
+        <v>348.23</v>
       </c>
       <c r="D150" t="n">
         <v>344.84</v>
@@ -7988,7 +7988,7 @@
         <v>362.1</v>
       </c>
       <c r="C151" t="n">
-        <v>353.98</v>
+        <v>352.6</v>
       </c>
       <c r="D151" t="n">
         <v>339.44</v>
@@ -8042,7 +8042,7 @@
         <v>378.52</v>
       </c>
       <c r="C152" t="n">
-        <v>369.67</v>
+        <v>370.14</v>
       </c>
       <c r="D152" t="n">
         <v>365.68</v>
@@ -8096,7 +8096,7 @@
         <v>380.06</v>
       </c>
       <c r="C153" t="n">
-        <v>374.87</v>
+        <v>373.51</v>
       </c>
       <c r="D153" t="n">
         <v>366.63</v>
@@ -8150,7 +8150,7 @@
         <v>371.82</v>
       </c>
       <c r="C154" t="n">
-        <v>369.84</v>
+        <v>368.66</v>
       </c>
       <c r="D154" t="n">
         <v>356.16</v>
@@ -8204,7 +8204,7 @@
         <v>331.74</v>
       </c>
       <c r="C155" t="n">
-        <v>314.5</v>
+        <v>315.75</v>
       </c>
       <c r="D155" t="n">
         <v>318.06</v>
@@ -8256,7 +8256,7 @@
         <v>345.43</v>
       </c>
       <c r="C156" t="n">
-        <v>338.44</v>
+        <v>337.15</v>
       </c>
       <c r="D156" t="n">
         <v>323.22</v>
@@ -8310,7 +8310,7 @@
         <v>361.64</v>
       </c>
       <c r="C157" t="n">
-        <v>343.53</v>
+        <v>342.51</v>
       </c>
       <c r="D157" t="n">
         <v>337.52</v>
@@ -8364,7 +8364,7 @@
         <v>348.83</v>
       </c>
       <c r="C158" t="n">
-        <v>328.44</v>
+        <v>329.26</v>
       </c>
       <c r="D158" t="n">
         <v>327.73</v>
@@ -8418,7 +8418,7 @@
         <v>329.53</v>
       </c>
       <c r="C159" t="n">
-        <v>312.49</v>
+        <v>312.22</v>
       </c>
       <c r="D159" t="n">
         <v>298.36</v>
@@ -8642,7 +8642,7 @@
         <v>334.72</v>
       </c>
       <c r="C164" t="n">
-        <v>310.37</v>
+        <v>311.1</v>
       </c>
       <c r="D164" t="n">
         <v>293.07</v>
@@ -8696,7 +8696,7 @@
         <v>346.25</v>
       </c>
       <c r="C165" t="n">
-        <v>326.19</v>
+        <v>324.68</v>
       </c>
       <c r="D165" t="n">
         <v>304.33</v>
@@ -8746,7 +8746,7 @@
         <v>365.77</v>
       </c>
       <c r="C166" t="n">
-        <v>343.76</v>
+        <v>342.56</v>
       </c>
       <c r="D166" t="n">
         <v>329.72</v>
@@ -8800,7 +8800,7 @@
         <v>350.55</v>
       </c>
       <c r="C167" t="n">
-        <v>330.67</v>
+        <v>332.32</v>
       </c>
       <c r="D167" t="n">
         <v>317.41</v>
@@ -8854,7 +8854,7 @@
         <v>350.53</v>
       </c>
       <c r="C168" t="n">
-        <v>337</v>
+        <v>337.24</v>
       </c>
       <c r="D168" t="n">
         <v>329.06</v>
@@ -8908,7 +8908,7 @@
         <v>339.45</v>
       </c>
       <c r="C169" t="n">
-        <v>329.2</v>
+        <v>327.78</v>
       </c>
       <c r="D169" t="n">
         <v>311.31</v>
@@ -8960,7 +8960,7 @@
         <v>363.24</v>
       </c>
       <c r="C170" t="n">
-        <v>343.17</v>
+        <v>341.82</v>
       </c>
       <c r="D170" t="n">
         <v>330.87</v>
@@ -9014,7 +9014,7 @@
         <v>353.05</v>
       </c>
       <c r="C171" t="n">
-        <v>327.72</v>
+        <v>327.57</v>
       </c>
       <c r="D171" t="n">
         <v>311.77</v>
@@ -9120,7 +9120,7 @@
         <v>348.54</v>
       </c>
       <c r="C173" t="n">
-        <v>343.74</v>
+        <v>344.74</v>
       </c>
       <c r="D173" t="n">
         <v>320.24</v>
@@ -9158,7 +9158,7 @@
         <v>352.97</v>
       </c>
       <c r="C174" t="n">
-        <v>330.53</v>
+        <v>330.4</v>
       </c>
       <c r="D174" t="n">
         <v>329.24</v>
@@ -9212,7 +9212,7 @@
         <v>353.32</v>
       </c>
       <c r="C175" t="n">
-        <v>331.03</v>
+        <v>330.94</v>
       </c>
       <c r="D175" t="n">
         <v>328.04</v>
@@ -9266,7 +9266,7 @@
         <v>349.69</v>
       </c>
       <c r="C176" t="n">
-        <v>328.07</v>
+        <v>328.4</v>
       </c>
       <c r="D176" t="n">
         <v>327.95</v>
@@ -9320,7 +9320,7 @@
         <v>352.52</v>
       </c>
       <c r="C177" t="n">
-        <v>345.79</v>
+        <v>347.19</v>
       </c>
       <c r="D177" t="n">
         <v>319.97</v>
@@ -9372,7 +9372,7 @@
         <v>343.6</v>
       </c>
       <c r="C178" t="n">
-        <v>315.64</v>
+        <v>316.2</v>
       </c>
       <c r="D178" t="n">
         <v>299.37</v>
@@ -9448,7 +9448,7 @@
         <v>358.37</v>
       </c>
       <c r="C180" t="n">
-        <v>335.59</v>
+        <v>334.92</v>
       </c>
       <c r="D180" t="n">
         <v>333.15</v>
@@ -9502,7 +9502,7 @@
         <v>368.64</v>
       </c>
       <c r="C181" t="n">
-        <v>363.43</v>
+        <v>362.94</v>
       </c>
       <c r="D181" t="n">
         <v>343.67</v>
@@ -9554,7 +9554,7 @@
         <v>356.92</v>
       </c>
       <c r="C182" t="n">
-        <v>352.94</v>
+        <v>353.43</v>
       </c>
       <c r="D182" t="n">
         <v>328.96</v>
@@ -9608,7 +9608,7 @@
         <v>357.17</v>
       </c>
       <c r="C183" t="n">
-        <v>354.85</v>
+        <v>355.78</v>
       </c>
       <c r="D183" t="n">
         <v>334.51</v>
@@ -9660,7 +9660,7 @@
         <v>350.2</v>
       </c>
       <c r="C184" t="n">
-        <v>337.39</v>
+        <v>335.81</v>
       </c>
       <c r="D184" t="n">
         <v>308.39</v>
@@ -9712,7 +9712,7 @@
         <v>367.88</v>
       </c>
       <c r="C185" t="n">
-        <v>353.13</v>
+        <v>351.71</v>
       </c>
       <c r="D185" t="n">
         <v>339.31</v>
@@ -9760,7 +9760,7 @@
         <v>356.85</v>
       </c>
       <c r="C186" t="n">
-        <v>352.19</v>
+        <v>351.92</v>
       </c>
       <c r="D186" t="n">
         <v>301.15</v>
@@ -9800,7 +9800,7 @@
         <v>364.15</v>
       </c>
       <c r="C187" t="n">
-        <v>345.85</v>
+        <v>343.81</v>
       </c>
       <c r="D187" t="n">
         <v>331.68</v>
@@ -9848,7 +9848,7 @@
         <v>355.75</v>
       </c>
       <c r="C188" t="n">
-        <v>354.39</v>
+        <v>354.54</v>
       </c>
       <c r="D188" t="n">
         <v>338.21</v>
@@ -9902,7 +9902,7 @@
         <v>363.52</v>
       </c>
       <c r="C189" t="n">
-        <v>359.48</v>
+        <v>359.03</v>
       </c>
       <c r="D189" t="n">
         <v>338.83</v>
@@ -9956,7 +9956,7 @@
         <v>349.95</v>
       </c>
       <c r="C190" t="n">
-        <v>314.45</v>
+        <v>313.14</v>
       </c>
       <c r="D190" t="n">
         <v>317.81</v>
@@ -10060,7 +10060,7 @@
         <v>334.6</v>
       </c>
       <c r="C192" t="n">
-        <v>313.94</v>
+        <v>315.1</v>
       </c>
       <c r="D192" t="n">
         <v>322.35</v>
@@ -10114,7 +10114,7 @@
         <v>360.62</v>
       </c>
       <c r="C193" t="n">
-        <v>353.53</v>
+        <v>353.35</v>
       </c>
       <c r="D193" t="n">
         <v>333.06</v>
@@ -10168,7 +10168,7 @@
         <v>375.12</v>
       </c>
       <c r="C194" t="n">
-        <v>356.91</v>
+        <v>357.6</v>
       </c>
       <c r="D194" t="n">
         <v>327.32</v>
@@ -10274,7 +10274,7 @@
         <v>369.43</v>
       </c>
       <c r="C196" t="n">
-        <v>362.55</v>
+        <v>361.9</v>
       </c>
       <c r="D196" t="n">
         <v>336.63</v>
@@ -10328,7 +10328,7 @@
         <v>349.84</v>
       </c>
       <c r="C197" t="n">
-        <v>329.1</v>
+        <v>327.39</v>
       </c>
       <c r="D197" t="n">
         <v>315.09</v>
@@ -10434,7 +10434,7 @@
         <v>360.37</v>
       </c>
       <c r="C199" t="n">
-        <v>348.5</v>
+        <v>349.06</v>
       </c>
       <c r="D199" t="n">
         <v>328.8</v>
@@ -10488,7 +10488,7 @@
         <v>363.34</v>
       </c>
       <c r="C200" t="n">
-        <v>340.46</v>
+        <v>340.04</v>
       </c>
       <c r="D200" t="n">
         <v>338.48</v>
@@ -10542,7 +10542,7 @@
         <v>356.35</v>
       </c>
       <c r="C201" t="n">
-        <v>346.6</v>
+        <v>344.73</v>
       </c>
       <c r="D201" t="n">
         <v>319.18</v>
@@ -10690,7 +10690,7 @@
         <v>358.59</v>
       </c>
       <c r="C204" t="n">
-        <v>353.75</v>
+        <v>354.15</v>
       </c>
       <c r="D204" t="n">
         <v>326.31</v>
@@ -10778,7 +10778,7 @@
         <v>346.64</v>
       </c>
       <c r="C206" t="n">
-        <v>330.28</v>
+        <v>330.9</v>
       </c>
       <c r="D206" t="n">
         <v>325.86</v>
@@ -10832,7 +10832,7 @@
         <v>337.6</v>
       </c>
       <c r="C207" t="n">
-        <v>325.37</v>
+        <v>325.26</v>
       </c>
       <c r="D207" t="n">
         <v>306.78</v>
@@ -10886,7 +10886,7 @@
         <v>355.46</v>
       </c>
       <c r="C208" t="n">
-        <v>328.82</v>
+        <v>329.24</v>
       </c>
       <c r="D208" t="n">
         <v>326.63</v>
@@ -13310,7 +13310,7 @@
         <v>0.06619999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2572330431884345</v>
+        <v>-0.25823991603437</v>
       </c>
       <c r="J3" t="n">
         <v>207</v>
@@ -13319,19 +13319,19 @@
         <v>161</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01533890293770901</v>
+        <v>0.01549700215086647</v>
       </c>
       <c r="M3" t="n">
-        <v>12.99027118257339</v>
+        <v>12.99355395137267</v>
       </c>
       <c r="N3" t="n">
-        <v>251.4844630165652</v>
+        <v>250.8310294307831</v>
       </c>
       <c r="O3" t="n">
-        <v>15.85826166439958</v>
+        <v>15.83764595610039</v>
       </c>
       <c r="P3" t="n">
-        <v>352.3416100090772</v>
+        <v>352.0811997064789</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14408,7 +14408,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-34.455657177776786,173.00360519936348</t>
+          <t>-34.45565703350833,173.0035972536892</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -14490,7 +14490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.45565439705949,173.0034520546599</t>
+          <t>-34.455654485997975,173.003456952678</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-34.45565560067708,173.00351834117217</t>
+          <t>-34.4556558062174,173.0035296610365</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -14654,7 +14654,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.455653256653,173.00338925118456</t>
+          <t>-34.45565339698206,173.0033969791684</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.45565032741952,173.00322794313257</t>
+          <t>-34.455650001277114,173.00320998373476</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.455645114755114,173.00294091931892</t>
+          <t>-34.45564486962271,173.00292742256102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.4556538673773,173.00342288424133</t>
+          <t>-34.45565402549212,173.00343159182893</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -14978,7 +14978,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.45565409664358,173.00343551024335</t>
+          <t>-34.45565422511118,173.00344258515833</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -15152,7 +15152,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.45565348394629,173.00340176834155</t>
+          <t>-34.45565363415682,173.00341004054968</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-34.45565138489339,173.00328617512034</t>
+          <t>-34.45565106864243,173.00326875994628</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -15316,7 +15316,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.45565466782716,173.00346696640386</t>
+          <t>-34.45565441682362,173.00345314310837</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.45565564613321,173.0035208446037</t>
+          <t>-34.455655584866264,173.00351747041336</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -15480,7 +15480,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.45565505124692,173.00348808230427</t>
+          <t>-34.455654940569424,173.0034819869928</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.4556551619241,173.00349417761575</t>
+          <t>-34.45565514808946,173.00349341570183</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.45565546035571,173.00351061318787</t>
+          <t>-34.45565542082846,173.0035084362909</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -15854,7 +15854,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.455654142101395,173.00343801367478</t>
+          <t>-34.45565434962554,173.0034494423836</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -15936,7 +15936,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.45564873423826,173.00314021419675</t>
+          <t>-34.455648892373205,173.00314892178326</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -16014,7 +16014,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.45565246803415,173.0033458220925</t>
+          <t>-34.455652578718436,173.00335191740365</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -16096,7 +16096,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.45565600978031,173.00354087205608</t>
+          <t>-34.455655650085916,173.00352106229337</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -16174,7 +16174,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.455650770178316,173.00325232437586</t>
+          <t>-34.45565068320821,173.00324753520306</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -16298,7 +16298,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-34.45565324677065,173.00338870696032</t>
+          <t>-34.45565304121731,173.00337738709666</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -16472,7 +16472,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.455652167603866,173.00332927767673</t>
+          <t>-34.45565199564606,173.00331980817563</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -16554,7 +16554,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.455658978124696,173.00370435702703</t>
+          <t>-34.45565862240921,173.00368476495265</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -16612,7 +16612,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.455655353632075,173.00350473556603</t>
+          <t>-34.45565536351391,173.0035052797903</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -16678,7 +16678,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.455653335711695,173.00339360497827</t>
+          <t>-34.45565293646374,173.00337161832002</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -16912,7 +16912,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-34.45565480024573,173.0034742590086</t>
+          <t>-34.45565474688309,173.00347132019775</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.45564656772703,173.00302092026453</t>
+          <t>-34.455646632961276,173.00302451214378</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -17064,7 +17064,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.45565117537742,173.0032746375675</t>
+          <t>-34.45565110619736,173.0032708279982</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -17290,7 +17290,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.45565179601594,173.00330881484683</t>
+          <t>-34.455651964021556,173.00331806665818</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.455650847265275,173.0032565693245</t>
+          <t>-34.4556506851848,173.0032476440479</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -17520,7 +17520,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.45565633982674,173.00355904914613</t>
+          <t>-34.45565653745803,173.0035699336313</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.45565105085324,173.00326778034275</t>
+          <t>-34.45565099353246,173.00326462384245</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -17764,7 +17764,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-34.45565284554535,173.00336661145727</t>
+          <t>-34.45565248186971,173.0033465840064</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -17838,7 +17838,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.45565617974468,173.00355023271322</t>
+          <t>-34.455656144170796,173.0035482735059</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -17920,7 +17920,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.45565475676506,173.003471864422</t>
+          <t>-34.45565471328434,173.00346946983535</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -18048,7 +18048,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-34.45565877062438,173.00369292831695</t>
+          <t>-34.455658616480584,173.00368443841808</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.45565862636162,173.00368498264237</t>
+          <t>-34.45565875283859,173.00369194871323</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -18204,7 +18204,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.455653790296104,173.0034186392924</t>
+          <t>-34.4556536183452,173.00340916979093</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -18286,7 +18286,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.455657831919076,173.00364122701023</t>
+          <t>-34.45565763824664,173.00363056021445</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -18460,7 +18460,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.45565550976469,173.0035133343091</t>
+          <t>-34.455655440592096,173.0035095247394</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -18542,7 +18542,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.45565048950143,173.00323686840912</t>
+          <t>-34.455650094178544,173.003215099442</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.455656205436895,173.00355164769627</t>
+          <t>-34.4556560512833,173.0035431577979</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -18694,7 +18694,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.45565374681433,173.00341624470582</t>
+          <t>-34.45565360648651,173.00340851672186</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-34.45565329025296,173.00339110154687</t>
+          <t>-34.45565341279376,173.00339784992715</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -18858,7 +18858,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.455655252837275,173.00349918447878</t>
+          <t>-34.455655037412235,173.00348732039032</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -18940,7 +18940,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.455655260742766,173.00349961985816</t>
+          <t>-34.45565540106484,173.0035073478424</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -19022,7 +19022,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.45565380610764,173.00341951005115</t>
+          <t>-34.45565402549212,173.00343159182893</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -19104,7 +19104,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.455652337584446,173.00333863833302</t>
+          <t>-34.45565205296541,173.003322964676</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -19186,7 +19186,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.455656116502205,173.00354674967798</t>
+          <t>-34.455656260773935,173.00355469535208</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -19302,7 +19302,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.45565881014833,173.0036951052141</t>
+          <t>-34.4556590374103,173.00370762237276</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.45565956504839,173.00373668395005</t>
+          <t>-34.4556597132601,173.00374484731455</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -19466,7 +19466,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.45565561253521,173.00351899424126</t>
+          <t>-34.455655440592096,173.0035095247394</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -19548,7 +19548,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.45565904136268,173.00370784006248</t>
+          <t>-34.455658962315184,173.00370348626814</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -19618,7 +19618,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.45565137303403,173.00328552205133</t>
+          <t>-34.45565146593231,173.00329063775874</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -19700,7 +19700,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.455658978124696,173.00370435702703</t>
+          <t>-34.4556591322671,173.00371284692596</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -19782,7 +19782,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-34.45565681414023,173.00358517191057</t>
+          <t>-34.45565672718316,173.00358038273708</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-34.45565755524389,173.00362598873056</t>
+          <t>-34.45565733983115,173.00361412464147</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -19946,7 +19946,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.45565578250126,173.00352835489832</t>
+          <t>-34.455655713329115,173.0035245453286</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -20028,7 +20028,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-34.45565611057321,173.00354642314343</t>
+          <t>-34.45565596630093,173.00353847746936</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.45565457691267,173.00346195954094</t>
+          <t>-34.4556544326349,173.00345401386713</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.45565485756111,173.0034774155092</t>
+          <t>-34.455654511691286,173.00345836766098</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -20274,7 +20274,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.45565419348842,173.0034408436408</t>
+          <t>-34.455654333814216,173.00344857162483</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -20356,7 +20356,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.45565229212459,173.00333613490167</t>
+          <t>-34.45565211621425,173.0033264477109</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -20410,7 +20410,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.455656171839365,173.0035497973338</t>
+          <t>-34.455656063141284,173.003543810867</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.455650503337665,173.00323763032296</t>
+          <t>-34.45565078994422,173.00325341282422</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -20570,7 +20570,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.45565364996842,173.00341091130844</t>
+          <t>-34.45565377250811,173.0034176596888</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -20652,7 +20652,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.45565148965098,173.00329194389678</t>
+          <t>-34.45565127025271,173.0032798621197</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -20812,7 +20812,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.455655847720585,173.00353194677834</t>
+          <t>-34.45565604140164,173.00354261357367</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.455651554877264,173.00329553577646</t>
+          <t>-34.455651335479345,173.0032834539994</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.45565103306404,173.0032668007392</t>
+          <t>-34.455650853195046,173.00325689585904</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.45565255697691,173.00335072011038</t>
+          <t>-34.45565273288531,173.00336040730127</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -21310,7 +21310,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.45565364601551,173.00341069361875</t>
+          <t>-34.45565386935373,173.0034229930862</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -21392,7 +21392,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-34.45565384168358,173.00342146925834</t>
+          <t>-34.455653675662255,173.0034123262914</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -21512,7 +21512,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.45565867379053,173.00368759491894</t>
+          <t>-34.455658875362765,173.0036986970944</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -21686,7 +21686,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-34.45565085121846,173.00325678701418</t>
+          <t>-34.4556506930912,173.00324807942724</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.45565528445919,173.00350092599632</t>
+          <t>-34.45565517378234,173.00349483068484</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -21850,7 +21850,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.455648819235876,173.0031448945245</t>
+          <t>-34.45564905248423,173.00315773821467</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -21998,7 +21998,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-34.45565675089875,173.00358168887527</t>
+          <t>-34.45565670149128,173.00357896775398</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -22080,7 +22080,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.455652058895,173.0033232912105</t>
+          <t>-34.45565163196274,173.00329978072517</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -22162,7 +22162,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-34.455655316081106,173.0035026675139</t>
+          <t>-34.455655424781185,173.0035086539806</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.45565526667187,173.0034999463927</t>
+          <t>-34.45565551371741,173.0035135519988</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -22326,7 +22326,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-34.45565615405243,173.00354881773015</t>
+          <t>-34.455656280537156,173.0035557838006</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.45565569158928,173.00352334803523</t>
+          <t>-34.45565566984942,173.0035221507419</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -22532,7 +22532,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.45564899318391,173.0031544728697</t>
+          <t>-34.45564875993524,173.00314162917954</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -22610,7 +22610,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-34.45565748607478,173.00362217916066</t>
+          <t>-34.45565725880407,173.00360966200248</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -22734,7 +22734,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.455653104464595,173.00338087013162</t>
+          <t>-34.455652809968534,173.0033646522501</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -22816,7 +22816,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.45565401165709,173.003430829915</t>
+          <t>-34.455653942481916,173.00342702034544</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -22994,7 +22994,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.455657968279745,173.00364873730524</t>
+          <t>-34.45565826669057,173.00366517287844</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.455657754845475,173.0036369820609</t>
+          <t>-34.45565758884026,173.0036278390931</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -23158,7 +23158,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.45565764615166,173.00363099559388</t>
+          <t>-34.45565728054305,173.0036108592959</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.455654823962455,173.00347556514677</t>
+          <t>-34.45565459470031,173.00346293914455</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -23322,7 +23322,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.455658173807954,173.00366005717024</t>
+          <t>-34.455658339810775,173.00366920013815</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.45565916388598,173.0037145884437</t>
+          <t>-34.45565896626756,173.00370370395785</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -23446,7 +23446,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.455658191594004,173.00366103677393</t>
+          <t>-34.45565794456487,173.00364743116697</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.45565590503447,173.003535103279</t>
+          <t>-34.455655851673285,173.00353216446806</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.4556563358741,173.00355883145644</t>
+          <t>-34.45565642876095,173.00356394716445</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -23692,7 +23692,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.455657901087584,173.00364503658017</t>
+          <t>-34.45565761453158,173.00362925407623</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.455656630344414,173.00357504933933</t>
+          <t>-34.45565663429702,173.003575267029</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -23930,7 +23930,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.4556505310101,173.00323915415066</t>
+          <t>-34.45565052112708,173.00323860992648</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.455648939813585,173.00315153405924</t>
+          <t>-34.45564922050125,173.00316699002542</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -24160,7 +24160,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.45565359265133,173.00340775480797</t>
+          <t>-34.455653315947025,173.00339251652986</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -24206,7 +24206,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.455657626389105,173.00362990714535</t>
+          <t>-34.4556578022754,173.00363959433741</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -24288,7 +24288,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.45565830819124,173.00366745862044</t>
+          <t>-34.4556582785479,173.0036658259476</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -24370,7 +24370,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.455658962315184,173.00370348626814</t>
+          <t>-34.455658875362765,173.0036986970944</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -24452,7 +24452,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.455657333902344,173.00361379810693</t>
+          <t>-34.45565707896283,173.0035997571208</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -24534,7 +24534,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-34.45565558684261,173.00351757925822</t>
+          <t>-34.455655622416984,173.0035195384655</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -24616,7 +24616,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.45565441089438,173.00345281657385</t>
+          <t>-34.45565455912503,173.0034609799373</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -24744,7 +24744,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.45565729240067,173.003611512365</t>
+          <t>-34.455657357617575,173.00361510424517</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -24892,7 +24892,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.455651133869395,173.00327235182593</t>
+          <t>-34.4556513750106,173.00328563089616</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -25044,7 +25044,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.45565712441729,173.00360226055247</t>
+          <t>-34.45565702757948,173.00359692715466</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -25126,7 +25126,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.45565655326851,173.00357080439008</t>
+          <t>-34.45565613231284,173.0035476204368</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -25208,7 +25208,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.455656163934066,173.0035493619544</t>
+          <t>-34.455655869460344,173.0035331440717</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -25290,7 +25290,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.455652021340946,173.00332122315857</t>
+          <t>-34.45565180589865,173.003309359071</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.4556541836063,173.00344029941658</t>
+          <t>-34.455653810060525,173.00341972774083</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -25454,7 +25454,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.45565494649858,173.00348231352734</t>
+          <t>-34.455654673756364,173.0034672929384</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -25536,7 +25536,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.455658047329166,173.00365309109944</t>
+          <t>-34.45565814021207,173.00365820680767</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -25618,7 +25618,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.4556590749578,173.00370969042504</t>
+          <t>-34.455658806195935,173.0036948875244</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -25700,7 +25700,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.45565808092515,173.003654941462</t>
+          <t>-34.455657847729036,173.00364209776907</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -25782,7 +25782,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.45564714297084,173.00305259410908</t>
+          <t>-34.455647390066176,173.00306619971255</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -25860,7 +25860,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.45565187507749,173.0033131686404</t>
+          <t>-34.45565162010345,173.00329912765613</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -25942,7 +25942,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.45565288112214,173.0033685706644</t>
+          <t>-34.45565267951992,173.00335746849055</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -26024,7 +26024,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-34.4556498984923,173.00320432380337</t>
+          <t>-34.45565006057592,173.0032132490798</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -26106,7 +26106,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.45564674563836,173.00303071629887</t>
+          <t>-34.45564669226505,173.00302777748857</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -26424,7 +26424,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.455646326557094,173.0030076411958</t>
+          <t>-34.45564647086387,173.0030155868681</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -26506,7 +26506,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.45564945374727,173.00317983371573</t>
+          <t>-34.455649155271196,173.00316339814597</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -26580,7 +26580,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.45565292658133,173.0033710740958</t>
+          <t>-34.455652689402406,173.00335801271476</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -26662,7 +26662,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.45565033927919,173.00322859620158</t>
+          <t>-34.45565066541886,173.00324655559953</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -26744,7 +26744,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.455651590455204,173.00329749498354</t>
+          <t>-34.45565163789239,173.0033001072597</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -26826,7 +26826,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-34.455650048716166,173.00321259601083</t>
+          <t>-34.45564976803426,173.0031971400443</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -26904,7 +26904,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.455652809968534,173.0033646522501</t>
+          <t>-34.455652543141376,173.00334995819648</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -26986,7 +26986,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-34.455649756174424,173.0031964869753</t>
+          <t>-34.455649726524804,173.00319485430276</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -27146,7 +27146,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.45565292262835,173.00337085640612</t>
+          <t>-34.45565312027641,173.00338174089038</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -27196,7 +27196,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.45565031160661,173.0032270723739</t>
+          <t>-34.45565028591063,173.00322565739103</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -27278,7 +27278,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.455650410437165,173.00323251461566</t>
+          <t>-34.45565039264768,173.00323153501216</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -27360,7 +27360,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.45564982535679,173.0032002965445</t>
+          <t>-34.45564989058577,173.00320388842403</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -27442,7 +27442,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.45565332780582,173.0033931695989</t>
+          <t>-34.45565360451006,173.00340840787703</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -27520,7 +27520,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.45564736832185,173.00306500241942</t>
+          <t>-34.45564747902011,173.00307109772982</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -27620,7 +27620,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.45565131176059,173.0032821478613</t>
+          <t>-34.45565117933055,173.0032748552572</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -27702,7 +27702,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.45565681414023,173.00358517191057</t>
+          <t>-34.45565671730168,173.0035798385128</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -27780,7 +27780,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.4556547409539,173.00347099366323</t>
+          <t>-34.455654837797205,173.00347632706072</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -27862,7 +27862,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.455655118443815,173.0034917830291</t>
+          <t>-34.45565530224652,173.00350190559996</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -27940,7 +27940,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.45565166754059,173.00330173993228</t>
+          <t>-34.45565135524498,173.00328454244777</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -28018,7 +28018,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.45565477850541,173.0034730617153</t>
+          <t>-34.455654497856436,173.0034576057471</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -28088,7 +28088,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.45565459272392,173.0034628302997</t>
+          <t>-34.45565453936098,173.00345989148886</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -28142,7 +28142,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.45565333966462,173.00339382266796</t>
+          <t>-34.45565293646374,173.00337161832002</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -28212,7 +28212,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.45565502753032,173.00348677616608</t>
+          <t>-34.45565505717606,173.00348840883882</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -28294,7 +28294,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.45565603349631,173.00354217819427</t>
+          <t>-34.45565594456124,173.003537280176</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -28376,7 +28376,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.45564713308699,173.00305204988496</t>
+          <t>-34.45564687412939,173.0030377912126</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.455647032271635,173.00304649879874</t>
+          <t>-34.45564726157678,173.0030591247987</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -28614,7 +28614,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.45565485756111,173.0034774155092</t>
+          <t>-34.45565482198606,173.00347545630194</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -28696,7 +28696,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.45565552557557,173.0035142050679</t>
+          <t>-34.45565566194403,173.00352171536247</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -28856,7 +28856,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.455656640225925,173.00357559356357</t>
+          <t>-34.45565651176602,173.0035685186482</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -28938,7 +28938,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.4556500289499,173.00321150756247</t>
+          <t>-34.45564969094522,173.00319289509576</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -29098,7 +29098,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.455653863424416,173.00342266655164</t>
+          <t>-34.45565397410488,173.00342876186298</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.45565227433593,173.00333515529812</t>
+          <t>-34.45565219132213,173.00333058381483</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -29262,7 +29262,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.45565348789921,173.00340198603124</t>
+          <t>-34.45565311829992,173.00338163204555</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -29480,7 +29480,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.455654901041676,173.00347981009585</t>
+          <t>-34.45565498009714,173.00348416388974</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -29604,7 +29604,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.45565026219125,173.003224351253</t>
+          <t>-34.45565038474125,173.0032310996328</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -29686,7 +29686,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.455649291661196,173.00317090843944</t>
+          <t>-34.4556492699179,173.00316971114626</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -29768,7 +29768,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.4556499736043,173.00320845990709</t>
+          <t>-34.45565005662267,173.00321303139015</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
